--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="development" sheetId="3" r:id="rId1"/>
-    <sheet name="variables_list" sheetId="1" r:id="rId2"/>
+    <sheet name="integration" sheetId="3" r:id="rId1"/>
+    <sheet name="variables_list_functions" sheetId="1" r:id="rId2"/>
     <sheet name="print" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables_list!$A$1:$E$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables_list_functions!$A$1:$E$464</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="389">
   <si>
     <t>CONTROL</t>
   </si>
@@ -996,9 +996,6 @@
     <t>XFRUIT</t>
   </si>
   <si>
-    <t>CROPGRO_SubRoutines</t>
-  </si>
-  <si>
     <t>üü</t>
   </si>
   <si>
@@ -1017,9 +1014,6 @@
     <t>Concluded</t>
   </si>
   <si>
-    <t>Syntax_for-R</t>
-  </si>
-  <si>
     <t>€</t>
   </si>
   <si>
@@ -1182,14 +1176,23 @@
     <t>UTILS (CURV)</t>
   </si>
   <si>
-    <t>DATES</t>
+    <t>UTILS (TABEX)</t>
+  </si>
+  <si>
+    <t>DATES(TIMDIF)</t>
+  </si>
+  <si>
+    <t>Syntax_.for-.R</t>
+  </si>
+  <si>
+    <t>CROPGRO_Sub-routines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,7 +1225,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1268,14 +1300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1299,10 +1328,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,642 +1668,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="7" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="F3" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G4" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="F5" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="F3" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="F4" s="13" t="s">
+      <c r="B49" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="F5" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C50" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2264,7 +2355,7 @@
   <dimension ref="A1:E464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+      <selection activeCell="B355" sqref="B339:B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5542,7 +5633,7 @@
         <v>assign("SRDOT", SRDOT, envir = env)</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>273</v>
       </c>
@@ -5558,7 +5649,7 @@
         <v>assign("RUNINIT", RUNINIT, envir = env)</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>273</v>
       </c>
@@ -5574,7 +5665,7 @@
         <v>assign("CONTROL", CONTROL, envir = env)</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>273</v>
       </c>
@@ -5590,7 +5681,7 @@
         <v>assign("AGRLF", AGRLF, envir = env)</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>273</v>
       </c>
@@ -5606,7 +5697,7 @@
         <v>assign("AGRRT", AGRRT, envir = env)</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>273</v>
       </c>
@@ -5622,7 +5713,7 @@
         <v>assign("AGRSH2", AGRSH2, envir = env)</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>273</v>
       </c>
@@ -5638,7 +5729,7 @@
         <v>assign("AGRSTM", AGRSTM, envir = env)</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>273</v>
       </c>
@@ -5654,7 +5745,7 @@
         <v>assign("CROP", CROP, envir = env)</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>273</v>
       </c>
@@ -5670,7 +5761,7 @@
         <v>assign("DRPP", DRPP, envir = env)</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -5686,7 +5777,7 @@
         <v>assign("DXR57", DXR57, envir = env)</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>273</v>
       </c>
@@ -5702,7 +5793,7 @@
         <v>assign("FILECC", FILECC, envir = env)</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>273</v>
       </c>
@@ -5718,7 +5809,7 @@
         <v>assign("FILEGC", FILEGC, envir = env)</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>273</v>
       </c>
@@ -5734,7 +5825,7 @@
         <v>assign("FILEIO", FILEIO, envir = env)</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>273</v>
       </c>
@@ -5750,7 +5841,7 @@
         <v>assign("FNINSH", FNINSH, envir = env)</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>273</v>
       </c>
@@ -5766,7 +5857,7 @@
         <v>assign("FRACDN", FRACDN, envir = env)</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>273</v>
       </c>
@@ -5782,7 +5873,7 @@
         <v>assign("LAGSD", LAGSD, envir = env)</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>273</v>
       </c>
@@ -5798,7 +5889,7 @@
         <v>assign("LNGPEG", LNGPEG, envir = env)</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>273</v>
       </c>
@@ -5814,7 +5905,7 @@
         <v>assign("NDLEAF", NDLEAF, envir = env)</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>273</v>
       </c>
@@ -5830,7 +5921,7 @@
         <v>assign("NSTRES", NSTRES, envir = env)</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>273</v>
       </c>
@@ -5846,7 +5937,7 @@
         <v>assign("PAR", PAR, envir = env)</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>273</v>
       </c>
@@ -5862,7 +5953,7 @@
         <v>assign("PCNL", PCNL, envir = env)</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>273</v>
       </c>
@@ -5878,7 +5969,7 @@
         <v>assign("PCNRT", PCNRT, envir = env)</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>273</v>
       </c>
@@ -5894,7 +5985,7 @@
         <v>assign("PCNST", PCNST, envir = env)</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>273</v>
       </c>
@@ -5910,7 +6001,7 @@
         <v>assign("PGAVL", PGAVL, envir = env)</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>273</v>
       </c>
@@ -5926,7 +6017,7 @@
         <v>assign("PUNCSD", PUNCSD, envir = env)</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>273</v>
       </c>
@@ -5942,7 +6033,7 @@
         <v>assign("PUNCTR", PUNCTR, envir = env)</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>273</v>
       </c>
@@ -5958,7 +6049,7 @@
         <v>assign("PLTPOP", PLTPOP, envir = env)</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>273</v>
       </c>
@@ -5974,7 +6065,7 @@
         <v>assign("RPROAV", RPROAV, envir = env)</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>273</v>
       </c>
@@ -5990,7 +6081,7 @@
         <v>assign("RTWT", RTWT, envir = env)</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>273</v>
       </c>
@@ -6006,7 +6097,7 @@
         <v>assign("SDDES", SDDES, envir = env)</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>273</v>
       </c>
@@ -6022,7 +6113,7 @@
         <v>assign("SDNO", SDNO, envir = env)</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>273</v>
       </c>
@@ -6038,7 +6129,7 @@
         <v>assign("SDVAR", SDVAR, envir = env)</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>273</v>
       </c>
@@ -6054,7 +6145,7 @@
         <v>assign("SHELN", SHELN, envir = env)</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>273</v>
       </c>
@@ -6070,7 +6161,7 @@
         <v>assign("SHVAR", SHVAR, envir = env)</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>273</v>
       </c>
@@ -6086,7 +6177,7 @@
         <v>assign("STMWT", STMWT, envir = env)</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>273</v>
       </c>
@@ -6102,7 +6193,7 @@
         <v>assign("SWFAC", SWFAC, envir = env)</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>273</v>
       </c>
@@ -6118,7 +6209,7 @@
         <v>assign("TAVG", TAVG, envir = env)</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>273</v>
       </c>
@@ -6134,7 +6225,7 @@
         <v>assign("TDUMX", TDUMX, envir = env)</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>273</v>
       </c>
@@ -6150,7 +6241,7 @@
         <v>assign("TDUMX2", TDUMX2, envir = env)</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>273</v>
       </c>
@@ -6166,7 +6257,7 @@
         <v>assign("TGRO", TGRO, envir = env)</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>273</v>
       </c>
@@ -6182,7 +6273,7 @@
         <v>assign("TURFAC", TURFAC, envir = env)</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>273</v>
       </c>
@@ -6198,7 +6289,7 @@
         <v>assign("VSTAGE", VSTAGE, envir = env)</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>273</v>
       </c>
@@ -6214,7 +6305,7 @@
         <v>assign("WCRLF", WCRLF, envir = env)</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>273</v>
       </c>
@@ -6230,7 +6321,7 @@
         <v>assign("WCRRT", WCRRT, envir = env)</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>273</v>
       </c>
@@ -6246,7 +6337,7 @@
         <v>assign("WCRST", WCRST, envir = env)</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>273</v>
       </c>
@@ -6262,7 +6353,7 @@
         <v>assign("WNRLF", WNRLF, envir = env)</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -6278,7 +6369,7 @@
         <v>assign("WNRRT", WNRRT, envir = env)</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>273</v>
       </c>
@@ -6294,7 +6385,7 @@
         <v>assign("WNRSH", WNRSH, envir = env)</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -6310,7 +6401,7 @@
         <v>assign("WNRST", WNRST, envir = env)</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>273</v>
       </c>
@@ -6326,7 +6417,7 @@
         <v>assign("WTLF", WTLF, envir = env)</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>273</v>
       </c>
@@ -6342,7 +6433,7 @@
         <v>assign("WTSD", WTSD, envir = env)</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>273</v>
       </c>
@@ -6358,7 +6449,7 @@
         <v>assign("WTSHE", WTSHE, envir = env)</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>273</v>
       </c>
@@ -6374,7 +6465,7 @@
         <v>assign("XPOD", XPOD, envir = env)</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -6390,7 +6481,7 @@
         <v>assign("NVEG0", NVEG0, envir = env)</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>273</v>
       </c>
@@ -6406,7 +6497,7 @@
         <v>assign("NR1", NR1, envir = env)</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>273</v>
       </c>
@@ -6422,7 +6513,7 @@
         <v>assign("NR2", NR2, envir = env)</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>273</v>
       </c>
@@ -6438,7 +6529,7 @@
         <v>assign("NR5", NR5, envir = env)</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -6454,7 +6545,7 @@
         <v>assign("NR7", NR7, envir = env)</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>273</v>
       </c>
@@ -6470,7 +6561,7 @@
         <v>assign("AGRSD1", AGRSD1, envir = env)</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>273</v>
       </c>
@@ -6486,7 +6577,7 @@
         <v>assign("AGRSD2", AGRSD2, envir = env)</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -6502,7 +6593,7 @@
         <v>assign("AGRVG", AGRVG, envir = env)</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>273</v>
       </c>
@@ -6518,7 +6609,7 @@
         <v>assign("AGRVG2", AGRVG2, envir = env)</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>273</v>
       </c>
@@ -6534,7 +6625,7 @@
         <v>assign("CDMREP", CDMREP, envir = env)</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -6550,7 +6641,7 @@
         <v>assign("F", F, envir = env)</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -6566,7 +6657,7 @@
         <v>assign("FNINL", FNINL, envir = env)</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>273</v>
       </c>
@@ -6582,7 +6673,7 @@
         <v>assign("FNINR", FNINR, envir = env)</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -6598,7 +6689,7 @@
         <v>assign("FNINS", FNINS, envir = env)</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -6614,7 +6705,7 @@
         <v>assign("FNINSD", FNINSD, envir = env)</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -6630,7 +6721,7 @@
         <v>assign("FRLF", FRLF, envir = env)</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -6646,7 +6737,7 @@
         <v>assign("FRRT", FRRT, envir = env)</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -6662,7 +6753,7 @@
         <v>assign("FRSTM", FRSTM, envir = env)</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -6678,7 +6769,7 @@
         <v>assign("GDMSD", GDMSD, envir = env)</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>273</v>
       </c>
@@ -6694,7 +6785,7 @@
         <v>assign("GRRAT1", GRRAT1, envir = env)</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>273</v>
       </c>
@@ -6710,7 +6801,7 @@
         <v>assign("NDMNEW", NDMNEW, envir = env)</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>273</v>
       </c>
@@ -6726,7 +6817,7 @@
         <v>assign("NDMOLD", NDMOLD, envir = env)</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>273</v>
       </c>
@@ -6742,7 +6833,7 @@
         <v>assign("NDMREP", NDMREP, envir = env)</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>273</v>
       </c>
@@ -6758,7 +6849,7 @@
         <v>assign("NDMSDR", NDMSDR, envir = env)</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>273</v>
       </c>
@@ -6774,7 +6865,7 @@
         <v>assign("NDMTOT", NDMTOT, envir = env)</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>273</v>
       </c>
@@ -6790,7 +6881,7 @@
         <v>assign("NDMVEG", NDMVEG, envir = env)</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>273</v>
       </c>
@@ -6806,7 +6897,7 @@
         <v>assign("NMINEP", NMINEP, envir = env)</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>273</v>
       </c>
@@ -6822,7 +6913,7 @@
         <v>assign("NMOBR", NMOBR, envir = env)</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>273</v>
       </c>
@@ -6838,7 +6929,7 @@
         <v>assign("PHTIM", PHTIM, envir = env)</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>273</v>
       </c>
@@ -6854,7 +6945,7 @@
         <v>assign("PNTIM", PNTIM, envir = env)</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>273</v>
       </c>
@@ -6870,7 +6961,7 @@
         <v>assign("POTCAR", POTCAR, envir = env)</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>273</v>
       </c>
@@ -6886,7 +6977,7 @@
         <v>assign("POTLIP", POTLIP, envir = env)</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>273</v>
       </c>
@@ -6902,7 +6993,7 @@
         <v>assign("SDGR", SDGR, envir = env)</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>273</v>
       </c>
@@ -6918,7 +7009,7 @@
         <v>assign("TURADD", TURADD, envir = env)</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>273</v>
       </c>
@@ -6934,7 +7025,7 @@
         <v>assign("XFRT", XFRT, envir = env)</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
@@ -6950,7 +7041,7 @@
         <v>assign("YREND", YREND, envir = env)</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -6966,7 +7057,7 @@
         <v>assign("EMERG", EMERG, envir = env)</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>274</v>
       </c>
@@ -6982,7 +7073,7 @@
         <v>assign("AGRSD1", AGRSD1, envir = env)</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>274</v>
       </c>
@@ -6998,7 +7089,7 @@
         <v>assign("AGRSH1", AGRSH1, envir = env)</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>274</v>
       </c>
@@ -7014,7 +7105,7 @@
         <v>assign("DLAYR", DLAYR, envir = env)</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>274</v>
       </c>
@@ -7030,7 +7121,7 @@
         <v>assign("DRPP", DRPP, envir = env)</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>274</v>
       </c>
@@ -7046,7 +7137,7 @@
         <v>assign("DUL", DUL, envir = env)</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>274</v>
       </c>
@@ -7062,7 +7153,7 @@
         <v>assign("FILECC", FILECC, envir = env)</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>274</v>
       </c>
@@ -7078,7 +7169,7 @@
         <v>assign("FILEGC", FILEGC, envir = env)</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>274</v>
       </c>
@@ -7094,7 +7185,7 @@
         <v>assign("FILEIO", FILEIO, envir = env)</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>274</v>
       </c>
@@ -7110,7 +7201,7 @@
         <v>assign("FNINL", FNINL, envir = env)</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>274</v>
       </c>
@@ -7126,7 +7217,7 @@
         <v>assign("FNINSD", FNINSD, envir = env)</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>274</v>
       </c>
@@ -7142,7 +7233,7 @@
         <v>assign("FNINSH", FNINSH, envir = env)</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>274</v>
       </c>
@@ -7158,7 +7249,7 @@
         <v>assign("GDMSD", GDMSD, envir = env)</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>274</v>
       </c>
@@ -7174,7 +7265,7 @@
         <v>assign("GRRAT1", GRRAT1, envir = env)</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>274</v>
       </c>
@@ -7190,7 +7281,7 @@
         <v>assign("ISWWAT", ISWWAT, envir = env)</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>274</v>
       </c>
@@ -7206,7 +7297,7 @@
         <v>assign("LL", LL, envir = env)</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>274</v>
       </c>
@@ -7222,7 +7313,7 @@
         <v>assign("NAVL", NAVL, envir = env)</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>274</v>
       </c>
@@ -7238,7 +7329,7 @@
         <v>assign("NDSET", NDSET, envir = env)</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>274</v>
       </c>
@@ -7254,7 +7345,7 @@
         <v>assign("NLAYR", NLAYR, envir = env)</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>274</v>
       </c>
@@ -7270,7 +7361,7 @@
         <v>assign("NRUSSH", NRUSSH, envir = env)</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>274</v>
       </c>
@@ -7286,7 +7377,7 @@
         <v>assign("NSTRES", NSTRES, envir = env)</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>274</v>
       </c>
@@ -7302,7 +7393,7 @@
         <v>assign("PGAVL", PGAVL, envir = env)</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>274</v>
       </c>
@@ -7318,7 +7409,7 @@
         <v>assign("PHTHRS", PHTHRS, envir = env)</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>274</v>
       </c>
@@ -7334,7 +7425,7 @@
         <v>assign("PHTIM", PHTIM, envir = env)</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>274</v>
       </c>
@@ -7350,7 +7441,7 @@
         <v>assign("PNTIM", PNTIM, envir = env)</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>274</v>
       </c>
@@ -7366,7 +7457,7 @@
         <v>assign("PUNCSD", PUNCSD, envir = env)</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>274</v>
       </c>
@@ -7382,7 +7473,7 @@
         <v>assign("PUNCTR", PUNCTR, envir = env)</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>274</v>
       </c>
@@ -7398,7 +7489,7 @@
         <v>assign("RNITP", RNITP, envir = env)</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>274</v>
       </c>
@@ -7414,7 +7505,7 @@
         <v>assign("SDDES", SDDES, envir = env)</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>274</v>
       </c>
@@ -7430,7 +7521,7 @@
         <v>assign("SDGR", SDGR, envir = env)</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>274</v>
       </c>
@@ -7446,7 +7537,7 @@
         <v>assign("SHELWT", SHELWT, envir = env)</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>274</v>
       </c>
@@ -7462,7 +7553,7 @@
         <v>assign("SW", SW, envir = env)</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>274</v>
       </c>
@@ -7478,7 +7569,7 @@
         <v>assign("SWFAC", SWFAC, envir = env)</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>274</v>
       </c>
@@ -7494,7 +7585,7 @@
         <v>assign("TDUMX", TDUMX, envir = env)</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>274</v>
       </c>
@@ -7510,7 +7601,7 @@
         <v>assign("TGRO", TGRO, envir = env)</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>274</v>
       </c>
@@ -7526,7 +7617,7 @@
         <v>assign("TURADD", TURADD, envir = env)</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>274</v>
       </c>
@@ -7542,7 +7633,7 @@
         <v>assign("XFRT", XFRT, envir = env)</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>274</v>
       </c>
@@ -7558,7 +7649,7 @@
         <v>assign("YRDOY", YRDOY, envir = env)</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>274</v>
       </c>
@@ -7574,7 +7665,7 @@
         <v>assign("YRNR1", YRNR1, envir = env)</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>274</v>
       </c>
@@ -7590,7 +7681,7 @@
         <v>assign("YRNR2", YRNR2, envir = env)</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>274</v>
       </c>
@@ -7606,7 +7697,7 @@
         <v>assign("PStres2", PStres2, envir = env)</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>274</v>
       </c>
@@ -7622,7 +7713,7 @@
         <v>assign("YRPLT", YRPLT, envir = env)</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>274</v>
       </c>
@@ -7638,7 +7729,7 @@
         <v>assign("AGRSD3", AGRSD3, envir = env)</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>274</v>
       </c>
@@ -7654,7 +7745,7 @@
         <v>assign("LAGSD", LAGSD, envir = env)</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>274</v>
       </c>
@@ -7670,7 +7761,7 @@
         <v>assign("LNGPEG", LNGPEG, envir = env)</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>274</v>
       </c>
@@ -7686,7 +7777,7 @@
         <v>assign("NGRSD", NGRSD, envir = env)</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>274</v>
       </c>
@@ -7702,7 +7793,7 @@
         <v>assign("NGRSH", NGRSH, envir = env)</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>274</v>
       </c>
@@ -7718,7 +7809,7 @@
         <v>assign("PCTMAT", PCTMAT, envir = env)</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>274</v>
       </c>
@@ -7734,7 +7825,7 @@
         <v>assign("PODNO", PODNO, envir = env)</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>274</v>
       </c>
@@ -7750,7 +7841,7 @@
         <v>assign("POTCAR", POTCAR, envir = env)</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>274</v>
       </c>
@@ -7766,7 +7857,7 @@
         <v>assign("POTLIP", POTLIP, envir = env)</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>274</v>
       </c>
@@ -7782,7 +7873,7 @@
         <v>assign("SDNO", SDNO, envir = env)</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>274</v>
       </c>
@@ -7798,7 +7889,7 @@
         <v>assign("SDVAR", SDVAR, envir = env)</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>274</v>
       </c>
@@ -7814,7 +7905,7 @@
         <v>assign("SEEDNO", SEEDNO, envir = env)</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>274</v>
       </c>
@@ -7830,7 +7921,7 @@
         <v>assign("SHELN", SHELN, envir = env)</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>274</v>
       </c>
@@ -7846,7 +7937,7 @@
         <v>assign("SHVAR", SHVAR, envir = env)</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>274</v>
       </c>
@@ -7862,7 +7953,7 @@
         <v>assign("WSDDTN", WSDDTN, envir = env)</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>274</v>
       </c>
@@ -7878,7 +7969,7 @@
         <v>assign("WSHDTN", WSHDTN, envir = env)</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>274</v>
       </c>
@@ -7894,7 +7985,7 @@
         <v>assign("WTABRT", WTABRT, envir = env)</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>274</v>
       </c>
@@ -7910,7 +8001,7 @@
         <v>assign("WTSD", WTSD, envir = env)</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>274</v>
       </c>
@@ -7926,7 +8017,7 @@
         <v>assign("WTSHE", WTSHE, envir = env)</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>274</v>
       </c>
@@ -7942,7 +8033,7 @@
         <v>assign("WTSHMT", WTSHMT, envir = env)</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>274</v>
       </c>
@@ -9706,7 +9797,7 @@
   <autoFilter ref="A1:E464">
     <filterColumn colId="0">
       <filters>
-        <filter val="DEMAND"/>
+        <filter val="PODS"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="422">
   <si>
     <t>CONTROL</t>
   </si>
@@ -1252,6 +1252,39 @@
   </si>
   <si>
     <t>CANOPY</t>
+  </si>
+  <si>
+    <t>NFIX</t>
+  </si>
+  <si>
+    <t>CNODMN</t>
+  </si>
+  <si>
+    <t>CTONOD</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>CNOD</t>
+  </si>
+  <si>
+    <t>NUPTAKE</t>
+  </si>
+  <si>
+    <t>KG2PPM</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>UNH4</t>
+  </si>
+  <si>
+    <t>UNO3</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1771,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,16 +2137,24 @@
       <c r="A25" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,11 +2185,15 @@
       <c r="A29" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
@@ -2302,14 +2347,14 @@
       <c r="A42" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>332</v>
+      <c r="B42" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,17 +2397,29 @@
       <c r="A46" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
@@ -2417,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E553"/>
+  <dimension ref="A1:E595"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView topLeftCell="A567" workbookViewId="0">
+      <selection activeCell="E569" sqref="E569:E576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12936,6 +12993,804 @@
       <c r="E553" t="str">
         <f t="shared" si="26"/>
         <v>assign("POTLIP", POTLIP, envir = env)</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>411</v>
+      </c>
+      <c r="B554" t="s">
+        <v>389</v>
+      </c>
+      <c r="C554" t="s">
+        <v>408</v>
+      </c>
+      <c r="D554" t="str">
+        <f t="shared" ref="D554:D595" si="27">CONCATENATE("simDataVars$",B554,"  &lt;-  0")</f>
+        <v>simDataVars$DYNAMIC  &lt;-  0</v>
+      </c>
+      <c r="E554" t="str">
+        <f t="shared" ref="E554:E595" si="28">CONCATENATE("assign(","""",B554,"""",", ",B554,", envir = env)")</f>
+        <v>assign("DYNAMIC", DYNAMIC, envir = env)</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>411</v>
+      </c>
+      <c r="B555" t="s">
+        <v>390</v>
+      </c>
+      <c r="C555" t="s">
+        <v>408</v>
+      </c>
+      <c r="D555" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$AGRNOD  &lt;-  0</v>
+      </c>
+      <c r="E555" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("AGRNOD", AGRNOD, envir = env)</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>411</v>
+      </c>
+      <c r="B556" t="s">
+        <v>412</v>
+      </c>
+      <c r="C556" t="s">
+        <v>408</v>
+      </c>
+      <c r="D556" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$CNODMN  &lt;-  0</v>
+      </c>
+      <c r="E556" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("CNODMN", CNODMN, envir = env)</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>411</v>
+      </c>
+      <c r="B557" t="s">
+        <v>413</v>
+      </c>
+      <c r="C557" t="s">
+        <v>408</v>
+      </c>
+      <c r="D557" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$CTONOD  &lt;-  0</v>
+      </c>
+      <c r="E557" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("CTONOD", CTONOD, envir = env)</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>411</v>
+      </c>
+      <c r="B558" t="s">
+        <v>162</v>
+      </c>
+      <c r="C558" t="s">
+        <v>408</v>
+      </c>
+      <c r="D558" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DLAYR  &lt;-  0</v>
+      </c>
+      <c r="E558" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DLAYR", DLAYR, envir = env)</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>411</v>
+      </c>
+      <c r="B559" t="s">
+        <v>186</v>
+      </c>
+      <c r="C559" t="s">
+        <v>408</v>
+      </c>
+      <c r="D559" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DXR57  &lt;-  0</v>
+      </c>
+      <c r="E559" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DXR57", DXR57, envir = env)</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>411</v>
+      </c>
+      <c r="B560" t="s">
+        <v>13</v>
+      </c>
+      <c r="C560" t="s">
+        <v>408</v>
+      </c>
+      <c r="D560" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$FILECC  &lt;-  0</v>
+      </c>
+      <c r="E560" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("FILECC", FILECC, envir = env)</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>411</v>
+      </c>
+      <c r="B561" t="s">
+        <v>188</v>
+      </c>
+      <c r="C561" t="s">
+        <v>408</v>
+      </c>
+      <c r="D561" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$FILEIO  &lt;-  0</v>
+      </c>
+      <c r="E561" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("FILEIO", FILEIO, envir = env)</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>411</v>
+      </c>
+      <c r="B562" t="s">
+        <v>169</v>
+      </c>
+      <c r="C562" t="s">
+        <v>408</v>
+      </c>
+      <c r="D562" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NLAYR  &lt;-  0</v>
+      </c>
+      <c r="E562" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NLAYR", NLAYR, envir = env)</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>411</v>
+      </c>
+      <c r="B563" t="s">
+        <v>213</v>
+      </c>
+      <c r="C563" t="s">
+        <v>408</v>
+      </c>
+      <c r="D563" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NR7  &lt;-  0</v>
+      </c>
+      <c r="E563" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NR7", NR7, envir = env)</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>411</v>
+      </c>
+      <c r="B564" t="s">
+        <v>86</v>
+      </c>
+      <c r="C564" t="s">
+        <v>408</v>
+      </c>
+      <c r="D564" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$PLTPOP  &lt;-  0</v>
+      </c>
+      <c r="E564" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("PLTPOP", PLTPOP, envir = env)</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>411</v>
+      </c>
+      <c r="B565" t="s">
+        <v>173</v>
+      </c>
+      <c r="C565" t="s">
+        <v>408</v>
+      </c>
+      <c r="D565" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$SAT  &lt;-  0</v>
+      </c>
+      <c r="E565" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("SAT", SAT, envir = env)</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>411</v>
+      </c>
+      <c r="B566" t="s">
+        <v>414</v>
+      </c>
+      <c r="C566" t="s">
+        <v>408</v>
+      </c>
+      <c r="D566" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$ST  &lt;-  0</v>
+      </c>
+      <c r="E566" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("ST", ST, envir = env)</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>411</v>
+      </c>
+      <c r="B567" t="s">
+        <v>174</v>
+      </c>
+      <c r="C567" t="s">
+        <v>408</v>
+      </c>
+      <c r="D567" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$SW  &lt;-  0</v>
+      </c>
+      <c r="E567" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("SW", SW, envir = env)</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>411</v>
+      </c>
+      <c r="B568" t="s">
+        <v>49</v>
+      </c>
+      <c r="C568" t="s">
+        <v>408</v>
+      </c>
+      <c r="D568" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$TURFAC  &lt;-  0</v>
+      </c>
+      <c r="E568" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("TURFAC", TURFAC, envir = env)</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>411</v>
+      </c>
+      <c r="B569" t="s">
+        <v>415</v>
+      </c>
+      <c r="C569" t="s">
+        <v>407</v>
+      </c>
+      <c r="D569" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$CNOD  &lt;-  0</v>
+      </c>
+      <c r="E569" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("CNOD", CNOD, envir = env)</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>411</v>
+      </c>
+      <c r="B570" t="s">
+        <v>74</v>
+      </c>
+      <c r="C570" t="s">
+        <v>407</v>
+      </c>
+      <c r="D570" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DWNOD  &lt;-  0</v>
+      </c>
+      <c r="E570" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DWNOD", DWNOD, envir = env)</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>411</v>
+      </c>
+      <c r="B571" t="s">
+        <v>75</v>
+      </c>
+      <c r="C571" t="s">
+        <v>407</v>
+      </c>
+      <c r="D571" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DWNODA  &lt;-  0</v>
+      </c>
+      <c r="E571" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DWNODA", DWNODA, envir = env)</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>411</v>
+      </c>
+      <c r="B572" t="s">
+        <v>19</v>
+      </c>
+      <c r="C572" t="s">
+        <v>407</v>
+      </c>
+      <c r="D572" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NDTH  &lt;-  0</v>
+      </c>
+      <c r="E572" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NDTH", NDTH, envir = env)</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>411</v>
+      </c>
+      <c r="B573" t="s">
+        <v>20</v>
+      </c>
+      <c r="C573" t="s">
+        <v>407</v>
+      </c>
+      <c r="D573" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NFIXN  &lt;-  0</v>
+      </c>
+      <c r="E573" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NFIXN", NFIXN, envir = env)</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>411</v>
+      </c>
+      <c r="B574" t="s">
+        <v>27</v>
+      </c>
+      <c r="C574" t="s">
+        <v>407</v>
+      </c>
+      <c r="D574" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NODGR  &lt;-  0</v>
+      </c>
+      <c r="E574" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NODGR", NODGR, envir = env)</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>411</v>
+      </c>
+      <c r="B575" t="s">
+        <v>66</v>
+      </c>
+      <c r="C575" t="s">
+        <v>407</v>
+      </c>
+      <c r="D575" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$WTNFX  &lt;-  0</v>
+      </c>
+      <c r="E575" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("WTNFX", WTNFX, envir = env)</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>411</v>
+      </c>
+      <c r="B576" t="s">
+        <v>39</v>
+      </c>
+      <c r="C576" t="s">
+        <v>407</v>
+      </c>
+      <c r="D576" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$SENNOD  &lt;-  0</v>
+      </c>
+      <c r="E576" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("SENNOD", SENNOD, envir = env)</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>416</v>
+      </c>
+      <c r="B577" t="s">
+        <v>389</v>
+      </c>
+      <c r="C577" t="s">
+        <v>408</v>
+      </c>
+      <c r="D577" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DYNAMIC  &lt;-  0</v>
+      </c>
+      <c r="E577" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DYNAMIC", DYNAMIC, envir = env)</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>416</v>
+      </c>
+      <c r="B578" t="s">
+        <v>162</v>
+      </c>
+      <c r="C578" t="s">
+        <v>408</v>
+      </c>
+      <c r="D578" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DLAYR  &lt;-  0</v>
+      </c>
+      <c r="E578" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DLAYR", DLAYR, envir = env)</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>416</v>
+      </c>
+      <c r="B579" t="s">
+        <v>165</v>
+      </c>
+      <c r="C579" t="s">
+        <v>408</v>
+      </c>
+      <c r="D579" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$DUL  &lt;-  0</v>
+      </c>
+      <c r="E579" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("DUL", DUL, envir = env)</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>416</v>
+      </c>
+      <c r="B580" t="s">
+        <v>13</v>
+      </c>
+      <c r="C580" t="s">
+        <v>408</v>
+      </c>
+      <c r="D580" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$FILECC  &lt;-  0</v>
+      </c>
+      <c r="E580" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("FILECC", FILECC, envir = env)</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>416</v>
+      </c>
+      <c r="B581" t="s">
+        <v>417</v>
+      </c>
+      <c r="C581" t="s">
+        <v>408</v>
+      </c>
+      <c r="D581" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$KG2PPM  &lt;-  0</v>
+      </c>
+      <c r="E581" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("KG2PPM", KG2PPM, envir = env)</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>416</v>
+      </c>
+      <c r="B582" t="s">
+        <v>168</v>
+      </c>
+      <c r="C582" t="s">
+        <v>408</v>
+      </c>
+      <c r="D582" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$LL  &lt;-  0</v>
+      </c>
+      <c r="E582" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("LL", LL, envir = env)</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>416</v>
+      </c>
+      <c r="B583" t="s">
+        <v>228</v>
+      </c>
+      <c r="C583" t="s">
+        <v>408</v>
+      </c>
+      <c r="D583" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NDMSDR  &lt;-  0</v>
+      </c>
+      <c r="E583" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NDMSDR", NDMSDR, envir = env)</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>416</v>
+      </c>
+      <c r="B584" t="s">
+        <v>229</v>
+      </c>
+      <c r="C584" t="s">
+        <v>408</v>
+      </c>
+      <c r="D584" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NDMTOT  &lt;-  0</v>
+      </c>
+      <c r="E584" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NDMTOT", NDMTOT, envir = env)</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>416</v>
+      </c>
+      <c r="B585" t="s">
+        <v>418</v>
+      </c>
+      <c r="C585" t="s">
+        <v>408</v>
+      </c>
+      <c r="D585" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NH4  &lt;-  0</v>
+      </c>
+      <c r="E585" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NH4", NH4, envir = env)</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>416</v>
+      </c>
+      <c r="B586" t="s">
+        <v>419</v>
+      </c>
+      <c r="C586" t="s">
+        <v>408</v>
+      </c>
+      <c r="D586" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NO3  &lt;-  0</v>
+      </c>
+      <c r="E586" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NO3", NO3, envir = env)</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>416</v>
+      </c>
+      <c r="B587" t="s">
+        <v>169</v>
+      </c>
+      <c r="C587" t="s">
+        <v>408</v>
+      </c>
+      <c r="D587" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$NLAYR  &lt;-  0</v>
+      </c>
+      <c r="E587" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("NLAYR", NLAYR, envir = env)</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>416</v>
+      </c>
+      <c r="B588" t="s">
+        <v>178</v>
+      </c>
+      <c r="C588" t="s">
+        <v>408</v>
+      </c>
+      <c r="D588" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$RLV  &lt;-  0</v>
+      </c>
+      <c r="E588" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("RLV", RLV, envir = env)</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>416</v>
+      </c>
+      <c r="B589" t="s">
+        <v>173</v>
+      </c>
+      <c r="C589" t="s">
+        <v>408</v>
+      </c>
+      <c r="D589" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$SAT  &lt;-  0</v>
+      </c>
+      <c r="E589" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("SAT", SAT, envir = env)</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>416</v>
+      </c>
+      <c r="B590" t="s">
+        <v>174</v>
+      </c>
+      <c r="C590" t="s">
+        <v>408</v>
+      </c>
+      <c r="D590" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$SW  &lt;-  0</v>
+      </c>
+      <c r="E590" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("SW", SW, envir = env)</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>416</v>
+      </c>
+      <c r="B591" t="s">
+        <v>46</v>
+      </c>
+      <c r="C591" t="s">
+        <v>407</v>
+      </c>
+      <c r="D591" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$TRNH4U  &lt;-  0</v>
+      </c>
+      <c r="E591" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("TRNH4U", TRNH4U, envir = env)</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>416</v>
+      </c>
+      <c r="B592" t="s">
+        <v>47</v>
+      </c>
+      <c r="C592" t="s">
+        <v>407</v>
+      </c>
+      <c r="D592" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$TRNO3U  &lt;-  0</v>
+      </c>
+      <c r="E592" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("TRNO3U", TRNO3U, envir = env)</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>416</v>
+      </c>
+      <c r="B593" t="s">
+        <v>48</v>
+      </c>
+      <c r="C593" t="s">
+        <v>407</v>
+      </c>
+      <c r="D593" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$TRNU  &lt;-  0</v>
+      </c>
+      <c r="E593" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("TRNU", TRNU, envir = env)</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>416</v>
+      </c>
+      <c r="B594" t="s">
+        <v>420</v>
+      </c>
+      <c r="C594" t="s">
+        <v>407</v>
+      </c>
+      <c r="D594" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$UNH4  &lt;-  0</v>
+      </c>
+      <c r="E594" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("UNH4", UNH4, envir = env)</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>416</v>
+      </c>
+      <c r="B595" t="s">
+        <v>421</v>
+      </c>
+      <c r="C595" t="s">
+        <v>407</v>
+      </c>
+      <c r="D595" t="str">
+        <f t="shared" si="27"/>
+        <v>simDataVars$UNO3  &lt;-  0</v>
+      </c>
+      <c r="E595" t="str">
+        <f t="shared" si="28"/>
+        <v>assign("UNO3", UNO3, envir = env)</v>
       </c>
     </row>
   </sheetData>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="424">
   <si>
     <t>CONTROL</t>
   </si>
@@ -1285,6 +1285,12 @@
   </si>
   <si>
     <t>UNO3</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>dificil</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1462,6 +1468,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1767,23 +1776,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>387</v>
       </c>
@@ -1794,28 +1805,32 @@
         <v>326</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>335</v>
       </c>
@@ -1825,15 +1840,16 @@
       <c r="C3" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>336</v>
       </c>
@@ -1843,15 +1859,16 @@
       <c r="C4" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>337</v>
       </c>
@@ -1861,15 +1878,16 @@
       <c r="C5" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>338</v>
       </c>
@@ -1879,17 +1897,18 @@
       <c r="C6" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>339</v>
       </c>
@@ -1899,11 +1918,12 @@
       <c r="C7" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>340</v>
       </c>
@@ -1913,11 +1933,12 @@
       <c r="C8" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>341</v>
       </c>
@@ -1927,11 +1948,12 @@
       <c r="C9" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>342</v>
       </c>
@@ -1941,11 +1963,12 @@
       <c r="C10" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>343</v>
       </c>
@@ -1955,11 +1978,12 @@
       <c r="C11" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>344</v>
       </c>
@@ -1969,11 +1993,12 @@
       <c r="C12" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>345</v>
       </c>
@@ -1983,11 +2008,12 @@
       <c r="C13" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>346</v>
       </c>
@@ -1997,11 +2023,12 @@
       <c r="C14" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>347</v>
       </c>
@@ -2011,11 +2038,12 @@
       <c r="C15" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>348</v>
       </c>
@@ -2025,11 +2053,12 @@
       <c r="C16" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>349</v>
       </c>
@@ -2039,11 +2068,12 @@
       <c r="C17" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>350</v>
       </c>
@@ -2053,11 +2083,12 @@
       <c r="C18" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>351</v>
       </c>
@@ -2067,11 +2098,12 @@
       <c r="C19" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>352</v>
       </c>
@@ -2081,11 +2113,12 @@
       <c r="C20" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>353</v>
       </c>
@@ -2095,9 +2128,12 @@
       <c r="C21" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>354</v>
       </c>
@@ -2107,9 +2143,10 @@
       <c r="C22" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="4"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>355</v>
       </c>
@@ -2119,9 +2156,10 @@
       <c r="C23" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>356</v>
       </c>
@@ -2131,9 +2169,10 @@
       <c r="C24" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>358</v>
       </c>
@@ -2143,9 +2182,10 @@
       <c r="C25" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>359</v>
       </c>
@@ -2155,9 +2195,10 @@
       <c r="C26" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>360</v>
       </c>
@@ -2167,9 +2208,12 @@
       <c r="C27" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>361</v>
       </c>
@@ -2179,9 +2223,10 @@
       <c r="C28" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>362</v>
       </c>
@@ -2191,11 +2236,12 @@
       <c r="C29" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>363</v>
       </c>
@@ -2205,9 +2251,10 @@
       <c r="C30" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>364</v>
       </c>
@@ -2217,9 +2264,10 @@
       <c r="C31" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>365</v>
       </c>
@@ -2229,9 +2277,10 @@
       <c r="C32" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>366</v>
       </c>
@@ -2241,9 +2290,10 @@
       <c r="C33" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>367</v>
       </c>
@@ -2253,9 +2303,10 @@
       <c r="C34" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>368</v>
       </c>
@@ -2265,9 +2316,10 @@
       <c r="C35" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>369</v>
       </c>
@@ -2277,9 +2329,10 @@
       <c r="C36" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>370</v>
       </c>
@@ -2289,9 +2342,12 @@
       <c r="C37" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>371</v>
       </c>
@@ -2301,9 +2357,10 @@
       <c r="C38" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="4"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>372</v>
       </c>
@@ -2313,9 +2370,10 @@
       <c r="C39" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="4"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>373</v>
       </c>
@@ -2325,11 +2383,12 @@
       <c r="C40" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>374</v>
       </c>
@@ -2339,11 +2398,12 @@
       <c r="C41" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>380</v>
       </c>
@@ -2353,11 +2413,12 @@
       <c r="C42" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>375</v>
       </c>
@@ -2367,9 +2428,10 @@
       <c r="C43" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="4"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>376</v>
       </c>
@@ -2379,9 +2441,10 @@
       <c r="C44" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="4"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>377</v>
       </c>
@@ -2391,9 +2454,10 @@
       <c r="C45" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="4"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>378</v>
       </c>
@@ -2403,11 +2467,12 @@
       <c r="C46" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>379</v>
       </c>
@@ -2417,11 +2482,12 @@
       <c r="C47" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>383</v>
       </c>
@@ -2431,11 +2497,12 @@
       <c r="C48" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>384</v>
       </c>
@@ -2445,11 +2512,12 @@
       <c r="C49" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>385</v>
       </c>
@@ -2459,13 +2527,14 @@
       <c r="C50" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="15" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="426">
   <si>
     <t>CONTROL</t>
   </si>
@@ -1290,7 +1290,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>dificil</t>
+    <t>Jair</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Henrique</t>
   </si>
 </sst>
 </file>
@@ -1466,11 +1472,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1780,7 +1786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,7 +1794,7 @@
     <col min="1" max="1" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1810,10 +1816,10 @@
       <c r="E1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1897,7 +1903,9 @@
       <c r="C6" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>325</v>
       </c>
@@ -1918,7 +1926,9 @@
       <c r="C7" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>325</v>
       </c>
@@ -1933,7 +1943,9 @@
       <c r="C8" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>325</v>
       </c>
@@ -1948,7 +1960,9 @@
       <c r="C9" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>325</v>
       </c>
@@ -1963,7 +1977,9 @@
       <c r="C10" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E10" s="17" t="s">
         <v>332</v>
       </c>
@@ -1978,7 +1994,9 @@
       <c r="C11" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E11" s="17" t="s">
         <v>332</v>
       </c>
@@ -1993,7 +2011,9 @@
       <c r="C12" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E12" s="17" t="s">
         <v>332</v>
       </c>
@@ -2008,7 +2028,9 @@
       <c r="C13" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E13" s="17" t="s">
         <v>332</v>
       </c>
@@ -2023,7 +2045,9 @@
       <c r="C14" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>332</v>
       </c>
@@ -2038,7 +2062,9 @@
       <c r="C15" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E15" s="17" t="s">
         <v>332</v>
       </c>
@@ -2053,7 +2079,9 @@
       <c r="C16" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E16" s="17" t="s">
         <v>332</v>
       </c>
@@ -2068,7 +2096,9 @@
       <c r="C17" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E17" s="17" t="s">
         <v>332</v>
       </c>
@@ -2083,7 +2113,9 @@
       <c r="C18" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E18" s="17" t="s">
         <v>332</v>
       </c>
@@ -2098,7 +2130,9 @@
       <c r="C19" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E19" s="17" t="s">
         <v>332</v>
       </c>
@@ -2113,7 +2147,9 @@
       <c r="C20" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E20" s="17" t="s">
         <v>332</v>
       </c>
@@ -2143,7 +2179,9 @@
       <c r="C22" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2156,7 +2194,9 @@
       <c r="C23" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2169,7 +2209,9 @@
       <c r="C24" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2182,7 +2224,9 @@
       <c r="C25" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2195,7 +2239,9 @@
       <c r="C26" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,7 +2255,7 @@
         <v>325</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -2223,7 +2269,9 @@
       <c r="C28" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2236,7 +2284,9 @@
       <c r="C29" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E29" s="17" t="s">
         <v>332</v>
       </c>
@@ -2251,7 +2301,9 @@
       <c r="C30" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2264,7 +2316,9 @@
       <c r="C31" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,7 +2331,9 @@
       <c r="C32" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2290,7 +2346,9 @@
       <c r="C33" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2303,7 +2361,9 @@
       <c r="C34" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2316,7 +2376,9 @@
       <c r="C35" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2329,7 +2391,9 @@
       <c r="C36" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2357,7 +2421,9 @@
       <c r="C38" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2370,7 +2436,9 @@
       <c r="C39" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2383,7 +2451,9 @@
       <c r="C40" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E40" s="17" t="s">
         <v>332</v>
       </c>
@@ -2398,7 +2468,9 @@
       <c r="C41" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E41" s="17" t="s">
         <v>332</v>
       </c>
@@ -2413,7 +2485,9 @@
       <c r="C42" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="E42" s="15" t="s">
         <v>357</v>
       </c>
@@ -2428,7 +2502,9 @@
       <c r="C43" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2454,7 +2530,9 @@
       <c r="C45" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2467,7 +2545,9 @@
       <c r="C46" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E46" s="17" t="s">
         <v>332</v>
       </c>
@@ -2482,7 +2562,9 @@
       <c r="C47" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>332</v>
       </c>
@@ -2497,7 +2579,9 @@
       <c r="C48" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="E48" s="13" t="s">
         <v>324</v>
       </c>
@@ -2512,7 +2596,9 @@
       <c r="C49" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>325</v>
       </c>
@@ -2527,7 +2613,9 @@
       <c r="C50" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="E50" s="15" t="s">
         <v>357</v>
       </c>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,14 +736,14 @@
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="19" t="s">

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="66">
   <si>
     <t>üü</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>source()</t>
-  </si>
-  <si>
-    <t>Atualizações -&gt; Guardar a cada reunião semanal</t>
   </si>
 </sst>
 </file>
@@ -322,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,9 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -697,7 +691,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,48 +699,50 @@
     <col min="1" max="1" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="19" t="s">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -754,22 +750,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -777,22 +773,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -800,22 +796,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -823,22 +819,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -846,22 +842,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -869,16 +865,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -886,677 +882,709 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5"/>
+      <c r="B21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="B22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="B23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="B24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="B25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="B26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="B27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="B28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>8</v>
+      <c r="B29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5"/>
+      <c r="B31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5"/>
+      <c r="B32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="B33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5"/>
+      <c r="B34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="B35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5"/>
+      <c r="B36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5"/>
+      <c r="B37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="B38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5"/>
+      <c r="B39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="B40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5"/>
+      <c r="B43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="B44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5"/>
+      <c r="B45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="B47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="B48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="B49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>33</v>
       </c>
     </row>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="integration" sheetId="3" r:id="rId1"/>
-    <sheet name="variables_list" sheetId="4" r:id="rId2"/>
-    <sheet name="constant_check" sheetId="5" r:id="rId3"/>
+    <sheet name="variables_integration" sheetId="6" r:id="rId2"/>
+    <sheet name="variables_list" sheetId="4" r:id="rId3"/>
+    <sheet name="constant_check" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables_list!$A$1:$L$513</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">variables_list!$A$1:$L$513</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="509">
   <si>
     <t>üü</t>
   </si>
@@ -1309,13 +1310,250 @@
   </si>
   <si>
     <t>PODCOMP</t>
+  </si>
+  <si>
+    <t>ecosmos_equivalent</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>ecomos_location</t>
+  </si>
+  <si>
+    <t>DAYL</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>cm3/cm3</t>
+  </si>
+  <si>
+    <t>SWFEM</t>
+  </si>
+  <si>
+    <t>TSDEP</t>
+  </si>
+  <si>
+    <t>Minimum daily temperature</t>
+  </si>
+  <si>
+    <t>ºC</t>
+  </si>
+  <si>
+    <t>Average temperature in top 10 cm of soil. Used to modify emergence rate of development</t>
+  </si>
+  <si>
+    <t>Day length on day of simulation (from sunrise to sunset)</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ecosmos_unit</t>
+  </si>
+  <si>
+    <t>location (.for)</t>
+  </si>
+  <si>
+    <t>use (.for)</t>
+  </si>
+  <si>
+    <t>PHENOL</t>
+  </si>
+  <si>
+    <t>WEATHR</t>
+  </si>
+  <si>
+    <t>PHENOL, CROPGRO-FREEZE</t>
+  </si>
+  <si>
+    <t>STEMP</t>
+  </si>
+  <si>
+    <t>PHENOL, NFIX</t>
+  </si>
+  <si>
+    <t>Average soil water content in top 10 cm of soil.  Used to modify emergence rate</t>
+  </si>
+  <si>
+    <t>Daily photosynthetically active radiation or photon flux density</t>
+  </si>
+  <si>
+    <t>moles[quanta]/m2-d</t>
+  </si>
+  <si>
+    <t>Hourly air temperature</t>
+  </si>
+  <si>
+    <t>Average daily temperature</t>
+  </si>
+  <si>
+    <t>PHOTO, DEMAND</t>
+  </si>
+  <si>
+    <t>TDAY</t>
+  </si>
+  <si>
+    <t>Average temperature during daylight hours</t>
+  </si>
+  <si>
+    <t>PHOTO</t>
+  </si>
+  <si>
+    <t>DEMAND, SDCOMP</t>
+  </si>
+  <si>
+    <t>MAINR</t>
+  </si>
+  <si>
+    <t>EOP</t>
+  </si>
+  <si>
+    <t>TRWUP</t>
+  </si>
+  <si>
+    <t>Potential daily root water uptake over soil profile</t>
+  </si>
+  <si>
+    <t>cm/d</t>
+  </si>
+  <si>
+    <t>Respiration coefficient that depends on total plant mass</t>
+  </si>
+  <si>
+    <t>Proportion of the day's photosynthesis which is respired in the maintenance process</t>
+  </si>
+  <si>
+    <t>g[CH2O] / g[tissue]</t>
+  </si>
+  <si>
+    <t>Maintenance respiration</t>
+  </si>
+  <si>
+    <t>PHENOL, DEMAND, PODS, VEGGR, RESPIR</t>
+  </si>
+  <si>
+    <t>RESPIR</t>
+  </si>
+  <si>
+    <t>CROPGRO, RESP, ROOTS, VEGGR</t>
+  </si>
+  <si>
+    <t>Daily gross photosynthesis</t>
+  </si>
+  <si>
+    <t>g[CH2O] / m2 - d</t>
+  </si>
+  <si>
+    <t>Relative effect of current leaf N on canopy photosynthesis</t>
+  </si>
+  <si>
+    <t>(0-1) (fraction)</t>
+  </si>
+  <si>
+    <t>PHOTO/ETPHOT</t>
+  </si>
+  <si>
+    <t>CROPGRO, GROW</t>
+  </si>
+  <si>
+    <t>Potential plant transpiration rate</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TRANS</t>
+  </si>
+  <si>
+    <t>CROPGRO</t>
+  </si>
+  <si>
+    <t>ROOTWU</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>Soil temperature in soil layer L</t>
+  </si>
+  <si>
+    <t>Volumetric soil water content in layer L</t>
+  </si>
+  <si>
+    <t>cm3 [water] / cm3 [soil]</t>
+  </si>
+  <si>
+    <t>CROPGRO, PHENOL, NUPTAK, NFIX, PODS, ROOTS</t>
+  </si>
+  <si>
+    <t>CROPGRO, PHENOL, NFIX</t>
+  </si>
+  <si>
+    <t>Nitrate in soil layer L</t>
+  </si>
+  <si>
+    <t>Ammonium N in soil layer L</t>
+  </si>
+  <si>
+    <t>g[N] / g[soil]</t>
+  </si>
+  <si>
+    <t>Thickness of soil layer L</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Actual number of soil layers</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Volumetric soil water content in soil layer L at lower limit</t>
+  </si>
+  <si>
+    <t>Volumetric soil water content in layer L at saturation</t>
+  </si>
+  <si>
+    <t>Volumetric soil water content at Drained Upper Limit in soil layer L</t>
+  </si>
+  <si>
+    <t>Root hospitality factor, used to compute root distribution</t>
+  </si>
+  <si>
+    <t>Bulk density, soil layer L</t>
+  </si>
+  <si>
+    <t>g [soil] / cm3 [soil]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maximum number of soil layers = 20</t>
+  </si>
+  <si>
+    <t>ModuleDefs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,6 +1627,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1437,7 +1688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1505,6 +1756,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,9 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2721,12 +2987,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="20.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L513"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B463" sqref="B463:B466"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22813,12 +23570,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -1754,9 +1754,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,6 +1770,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2109,10 +2109,10 @@
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2994,478 +2994,478 @@
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="28"/>
-    <col min="2" max="2" width="20.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="20.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>493</v>
       </c>
     </row>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="567">
   <si>
     <t>üü</t>
   </si>
@@ -1312,18 +1312,12 @@
     <t>PODCOMP</t>
   </si>
   <si>
-    <t>ecosmos_equivalent</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
     <t>conversion</t>
   </si>
   <si>
-    <t>ecomos_location</t>
-  </si>
-  <si>
     <t>DAYL</t>
   </si>
   <si>
@@ -1354,9 +1348,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>ecosmos_unit</t>
-  </si>
-  <si>
     <t>location (.for)</t>
   </si>
   <si>
@@ -1456,9 +1447,6 @@
     <t>(0-1) (fraction)</t>
   </si>
   <si>
-    <t>PHOTO/ETPHOT</t>
-  </si>
-  <si>
     <t>CROPGRO, GROW</t>
   </si>
   <si>
@@ -1474,12 +1462,6 @@
     <t>CROPGRO</t>
   </si>
   <si>
-    <t>ROOTWU</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -1519,9 +1501,6 @@
     <t>cm</t>
   </si>
   <si>
-    <t>Actual number of soil layers</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -1543,17 +1522,234 @@
     <t>g [soil] / cm3 [soil]</t>
   </si>
   <si>
-    <t xml:space="preserve"> maximum number of soil layers = 20</t>
-  </si>
-  <si>
-    <t>ModuleDefs</t>
+    <t>mol-CO2 / m-2 / second</t>
+  </si>
+  <si>
+    <t>MJ/m2/d</t>
+  </si>
+  <si>
+    <t>sumnow.R, sumday.R</t>
+  </si>
+  <si>
+    <t>30.031 (CH20)  / 44.01 (CO2)</t>
+  </si>
+  <si>
+    <t>kg C / m-2 / d</t>
+  </si>
+  <si>
+    <t>[30.031 (CH20)  / 12 (C)] * 1000</t>
+  </si>
+  <si>
+    <t>NUPTAK</t>
+  </si>
+  <si>
+    <t>KG2PPM</t>
+  </si>
+  <si>
+    <t>UNH4</t>
+  </si>
+  <si>
+    <t>UNO3</t>
+  </si>
+  <si>
+    <t>ROOTWU/SPAM</t>
+  </si>
+  <si>
+    <t>PHOTO/ETHR/ETPHOT</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>adan</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>adpar</t>
+  </si>
+  <si>
+    <t>(86400/1000000)* 4.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(86400/1000000) W/m2 para MJ/m2.d  and 4.59  MJ/m2.d para mol/m2.d </t>
+  </si>
+  <si>
+    <t>sumday.R</t>
+  </si>
+  <si>
+    <t>*100</t>
+  </si>
+  <si>
+    <t>ºK</t>
+  </si>
+  <si>
+    <t>inisoil.R</t>
+  </si>
+  <si>
+    <t>Number of soil layers  (NL = 20 for maximum)</t>
+  </si>
+  <si>
+    <t>nsoilay</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>= CROPGRO</t>
+  </si>
+  <si>
+    <t>not needed</t>
+  </si>
+  <si>
+    <t>discarded</t>
+  </si>
+  <si>
+    <t>tmin</t>
+  </si>
+  <si>
+    <t>daylength</t>
+  </si>
+  <si>
+    <t>/60</t>
+  </si>
+  <si>
+    <t>Tsoil of the first layer to ºC</t>
+  </si>
+  <si>
+    <t>to ºC</t>
+  </si>
+  <si>
+    <t>created in 15th Sep 2020 | to convert kg C / m2.d to g CH2O / m2.d</t>
+  </si>
+  <si>
+    <t>to cm</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>to convert to cm3 [water] / cm3 [soil]</t>
+  </si>
+  <si>
+    <t>Cumulative depth in soil layer L (cm)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ok - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Calibrar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ok - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Comparar</t>
+    </r>
+  </si>
+  <si>
+    <t>ECOSMOS_equivalent</t>
+  </si>
+  <si>
+    <t>ECOSMOS_unit</t>
+  </si>
+  <si>
+    <t>ECOSMOS_location</t>
+  </si>
+  <si>
+    <t>diurnal.R</t>
+  </si>
+  <si>
+    <t>sumday.R, diurnal.R</t>
+  </si>
+  <si>
+    <t>ta_h / ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to ºC | averaged values of ta_h </t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>hsoi[]</t>
+  </si>
+  <si>
+    <t>swilt[]</t>
+  </si>
+  <si>
+    <t>sfield[]</t>
+  </si>
+  <si>
+    <t>poros[]</t>
+  </si>
+  <si>
+    <t>SRGF[]</t>
+  </si>
+  <si>
+    <t>wsoi[]</t>
+  </si>
+  <si>
+    <t>tsoi[]</t>
+  </si>
+  <si>
+    <t>ta_h[]</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>stresstl - calibrar</t>
+  </si>
+  <si>
+    <t>*poros[]</t>
+  </si>
+  <si>
+    <t>tsoi[1]</t>
+  </si>
+  <si>
+    <t>depth[]</t>
+  </si>
+  <si>
+    <t>bulkd[]</t>
+  </si>
+  <si>
+    <t>g/cm³</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,8 +1836,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1657,6 +1865,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,7 +1908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1755,15 +1975,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1771,8 +1984,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,7 +2312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2150,7 +2384,7 @@
       <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -2173,7 +2407,7 @@
       <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2196,7 +2430,7 @@
       <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -2487,8 +2721,8 @@
       <c r="D21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
+      <c r="E21" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,7 +2738,7 @@
       <c r="D22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2589,8 +2823,8 @@
       <c r="D27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
+      <c r="E27" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2640,8 +2874,8 @@
       <c r="D30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>1</v>
+      <c r="E30" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2674,8 +2908,8 @@
       <c r="D32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>1</v>
+      <c r="E32" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,7 +2959,7 @@
       <c r="D35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2776,7 +3010,7 @@
       <c r="D38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2878,7 +3112,7 @@
       <c r="D44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2987,503 +3221,864 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="27"/>
-    <col min="2" max="2" width="20.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="63.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="26.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="K1" s="36" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="J3" s="26">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J4" s="26">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="B5" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="F6" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J6" s="26">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="D8" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="J9" s="26">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="E10" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="B12" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="B15" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B16" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D23" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="E28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>493</v>
+      <c r="G28" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J28" s="26">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L513"/>
+  <dimension ref="A1:L532"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D514" sqref="D514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3535,7 +4130,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3574,7 +4169,7 @@
         <v>"CONTROL"</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3613,7 +4208,7 @@
         <v>"ISWITCH"</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3652,7 +4247,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3691,7 +4286,7 @@
         <v>"SOILPROP"</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3730,7 +4325,7 @@
         <v>"AGEFAC"</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +4364,7 @@
         <v>"CADLF"</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -3808,7 +4403,7 @@
         <v>"CADST"</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -3847,7 +4442,7 @@
         <v>"CRUSLF"</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -3886,7 +4481,7 @@
         <v>"CRUSRT"</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -3925,7 +4520,7 @@
         <v>"CRUSSH"</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3964,7 +4559,7 @@
         <v>"CRUSST"</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4003,7 +4598,7 @@
         <v>"DISLA"</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -4042,7 +4637,7 @@
         <v>"Fnew"</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4081,7 +4676,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4120,7 +4715,7 @@
         <v>"FRLF"</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4159,7 +4754,7 @@
         <v>"FRSTM"</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -4198,7 +4793,7 @@
         <v>"NADLF"</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4237,7 +4832,7 @@
         <v>"NADRT"</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -4276,7 +4871,7 @@
         <v>"NADST"</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -4315,7 +4910,7 @@
         <v>"NDTH"</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -4354,7 +4949,7 @@
         <v>"NFIXN"</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -4393,7 +4988,7 @@
         <v>"NGRLF"</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -4432,7 +5027,7 @@
         <v>"NGRRT"</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -4471,7 +5066,7 @@
         <v>"NGRSD"</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -4510,7 +5105,7 @@
         <v>"NGRSH"</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -4549,7 +5144,7 @@
         <v>"NGRST"</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -4588,7 +5183,7 @@
         <v>"NMINEA"</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -4627,7 +5222,7 @@
         <v>"NODGR"</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -4666,7 +5261,7 @@
         <v>"NOUTDO"</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4705,7 +5300,7 @@
         <v>"NPLTD"</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4744,7 +5339,7 @@
         <v>"NRUSLF"</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4783,7 +5378,7 @@
         <v>"NRUSRT"</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -4822,7 +5417,7 @@
         <v>"NRUSSH"</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -4861,7 +5456,7 @@
         <v>"NRUSST"</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -4900,7 +5495,7 @@
         <v>"POTCAR"</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -4939,7 +5534,7 @@
         <v>"POTLIP"</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -4978,7 +5573,7 @@
         <v>"PPLTD"</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -5017,7 +5612,7 @@
         <v>"SDIDOT"</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -5056,7 +5651,7 @@
         <v>"SDPROR"</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -5095,7 +5690,7 @@
         <v>"SENNOD"</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -5134,7 +5729,7 @@
         <v>"SENRT"</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5173,7 +5768,7 @@
         <v>"SLDOT"</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -5212,7 +5807,7 @@
         <v>"SLNDOT"</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -5251,7 +5846,7 @@
         <v>"SRDOT"</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -5290,7 +5885,7 @@
         <v>"SSDOT"</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -5329,7 +5924,7 @@
         <v>"SSNDOT"</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -5368,7 +5963,7 @@
         <v>"TRNH4U"</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -5407,7 +6002,7 @@
         <v>"TRNO3U"</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -5446,7 +6041,7 @@
         <v>"TRNU"</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -5485,7 +6080,7 @@
         <v>"TURFAC"</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -5524,7 +6119,7 @@
         <v>"WLDOTN"</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -5563,7 +6158,7 @@
         <v>"WLIDOT"</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -5602,7 +6197,7 @@
         <v>"WRDOTN"</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -5641,7 +6236,7 @@
         <v>"WRIDOT"</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -5680,7 +6275,7 @@
         <v>"WSDDTN"</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -5719,7 +6314,7 @@
         <v>"WSDOTN"</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -5758,7 +6353,7 @@
         <v>"WSHDTN"</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -5797,7 +6392,7 @@
         <v>"WSIDOT"</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5836,7 +6431,7 @@
         <v>"WTABRT"</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -5875,7 +6470,7 @@
         <v>"WTSHMT"</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -5914,7 +6509,7 @@
         <v>"YRNR1"</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -5953,7 +6548,7 @@
         <v>"MDATE"</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -5992,7 +6587,7 @@
         <v>"YRPLT"</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -6031,7 +6626,7 @@
         <v>"SWIDOT"</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -6070,7 +6665,7 @@
         <v>"WLFDOT"</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -6109,7 +6704,7 @@
         <v>"WSHIDT"</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -6148,7 +6743,7 @@
         <v>"WTNFX"</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -6187,7 +6782,7 @@
         <v>"XHLAI"</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -6226,7 +6821,7 @@
         <v>"AREALF"</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6265,7 +6860,7 @@
         <v>"BETN"</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -6304,7 +6899,7 @@
         <v>"CANNAA"</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -6343,7 +6938,7 @@
         <v>"CANWAA"</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -6382,7 +6977,7 @@
         <v>"CLW"</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -6421,7 +7016,7 @@
         <v>"CSW"</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -6460,7 +7055,7 @@
         <v>"DWNOD"</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -6499,7 +7094,7 @@
         <v>"DWNODA"</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -6538,7 +7133,7 @@
         <v>"GROWTH"</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -6577,7 +7172,7 @@
         <v>"GRWRES"</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -6616,7 +7211,7 @@
         <v>"LAIMX"</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -6655,7 +7250,7 @@
         <v>"PCCSD"</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -6694,7 +7289,7 @@
         <v>"PCLSD"</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -6733,7 +7328,7 @@
         <v>"PCNL"</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -6772,7 +7367,7 @@
         <v>"PCNRT"</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -6811,7 +7406,7 @@
         <v>"PCNSD"</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -6850,7 +7445,7 @@
         <v>"PCNSH"</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -6889,7 +7484,7 @@
         <v>"PCNST"</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -6928,7 +7523,7 @@
         <v>"PLTPOP"</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -6970,7 +7565,7 @@
         <v>"PLIGLF"</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -7012,7 +7607,7 @@
         <v>"PLIGNO"</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -7054,7 +7649,7 @@
         <v>"PLIGRT"</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -7096,7 +7691,7 @@
         <v>"PLIGSD"</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -7138,7 +7733,7 @@
         <v>"PLIGSH"</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -7180,7 +7775,7 @@
         <v>"PLIGST"</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -7219,7 +7814,7 @@
         <v>"PODWT"</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -7258,7 +7853,7 @@
         <v>"PUNCSD"</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -7297,7 +7892,7 @@
         <v>"PUNCTR"</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -7336,7 +7931,7 @@
         <v>"RHOL"</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -7375,7 +7970,7 @@
         <v>"RHOS"</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -7414,7 +8009,7 @@
         <v>"RNITP"</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -7456,7 +8051,7 @@
         <v>"ROWSPC"</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -7495,7 +8090,7 @@
         <v>"RTWT"</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -7534,7 +8129,7 @@
         <v>"SDNPL"</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -7573,7 +8168,7 @@
         <v>"SDRATE"</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -7612,7 +8207,7 @@
         <v>"SDWT"</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -7651,7 +8246,7 @@
         <v>"SEEDNI"</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -7690,7 +8285,7 @@
         <v>"SEEDNO"</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -7732,7 +8327,7 @@
         <v>"SENESCE"</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -7771,7 +8366,7 @@
         <v>"SHELWT"</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -7810,7 +8405,7 @@
         <v>"SLA"</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -7849,7 +8444,7 @@
         <v>"SLAAD"</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -7888,7 +8483,7 @@
         <v>"STMWT"</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -7927,7 +8522,7 @@
         <v>"TOPWT"</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -7966,7 +8561,7 @@
         <v>"TOTWT"</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -8005,7 +8600,7 @@
         <v>"WCRLF"</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -8044,7 +8639,7 @@
         <v>"WCRRT"</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -8083,7 +8678,7 @@
         <v>"WCRSH"</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -8122,7 +8717,7 @@
         <v>"WCRST"</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -8161,7 +8756,7 @@
         <v>"WNRLF"</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -8200,7 +8795,7 @@
         <v>"WNRRT"</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>70</v>
       </c>
@@ -8239,7 +8834,7 @@
         <v>"WNRSH"</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -8278,7 +8873,7 @@
         <v>"WNRST"</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>70</v>
       </c>
@@ -8317,7 +8912,7 @@
         <v>"WTCO"</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>70</v>
       </c>
@@ -8356,7 +8951,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>70</v>
       </c>
@@ -8395,7 +8990,7 @@
         <v>"WTLO"</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>70</v>
       </c>
@@ -8434,7 +9029,7 @@
         <v>"WTMAIN"</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -8473,7 +9068,7 @@
         <v>"WTNCAN"</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -8512,7 +9107,7 @@
         <v>"WTNEW"</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>70</v>
       </c>
@@ -8551,7 +9146,7 @@
         <v>"WTNLA"</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>70</v>
       </c>
@@ -8590,7 +9185,7 @@
         <v>"WTNLF"</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>70</v>
       </c>
@@ -8629,7 +9224,7 @@
         <v>"WTNLO"</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>70</v>
       </c>
@@ -8668,7 +9263,7 @@
         <v>"WTNNA"</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -8707,7 +9302,7 @@
         <v>"WTNNAG"</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -8746,7 +9341,7 @@
         <v>"WTNNO"</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>70</v>
       </c>
@@ -8785,7 +9380,7 @@
         <v>"WTNNOD"</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>70</v>
       </c>
@@ -8824,7 +9419,7 @@
         <v>"WTNOO"</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>70</v>
       </c>
@@ -8863,7 +9458,7 @@
         <v>"WTNRA"</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>70</v>
       </c>
@@ -8902,7 +9497,7 @@
         <v>"WTNRO"</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -8941,7 +9536,7 @@
         <v>"WTNRT"</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>70</v>
       </c>
@@ -8980,7 +9575,7 @@
         <v>"WTNSA"</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>70</v>
       </c>
@@ -9019,7 +9614,7 @@
         <v>"WTNSD"</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -9058,7 +9653,7 @@
         <v>"WTNSDA"</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -9097,7 +9692,7 @@
         <v>"WTNSDO"</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>70</v>
       </c>
@@ -9136,7 +9731,7 @@
         <v>"WTNSH"</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>70</v>
       </c>
@@ -9175,7 +9770,7 @@
         <v>"WTNSHA"</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -9214,7 +9809,7 @@
         <v>"WTNSHO"</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>70</v>
       </c>
@@ -9253,7 +9848,7 @@
         <v>"WTNSO"</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>70</v>
       </c>
@@ -9292,7 +9887,7 @@
         <v>"WTNST"</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>70</v>
       </c>
@@ -9331,7 +9926,7 @@
         <v>"WTNUP"</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>70</v>
       </c>
@@ -9370,7 +9965,7 @@
         <v>"WTRO"</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>70</v>
       </c>
@@ -9409,7 +10004,7 @@
         <v>"WTSDO"</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>70</v>
       </c>
@@ -9448,7 +10043,7 @@
         <v>"WTSHO"</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -9487,7 +10082,7 @@
         <v>"WTSO"</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -9526,7 +10121,7 @@
         <v>"XLAI"</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -9565,7 +10160,7 @@
         <v>"XPOD"</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -9604,7 +10199,7 @@
         <v>"ShutMob"</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>70</v>
       </c>
@@ -9643,7 +10238,7 @@
         <v>"RootMob"</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>70</v>
       </c>
@@ -9682,7 +10277,7 @@
         <v>"ShelMob"</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>226</v>
       </c>
@@ -9721,7 +10316,7 @@
         <v>"AGEFAC"</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>226</v>
       </c>
@@ -9760,7 +10355,7 @@
         <v>"DWNOD"</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>226</v>
       </c>
@@ -9799,7 +10394,7 @@
         <v>"IDETO"</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>226</v>
       </c>
@@ -9838,7 +10433,7 @@
         <v>"IHARI"</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>226</v>
       </c>
@@ -9877,7 +10472,7 @@
         <v>"NOUTDO"</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>226</v>
       </c>
@@ -9916,7 +10511,7 @@
         <v>"PODWT"</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>226</v>
       </c>
@@ -9955,7 +10550,7 @@
         <v>"RTWT"</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -9994,7 +10589,7 @@
         <v>"SDWT"</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>226</v>
       </c>
@@ -10033,7 +10628,7 @@
         <v>"SHELWT"</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>226</v>
       </c>
@@ -10072,7 +10667,7 @@
         <v>"STMWT"</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>226</v>
       </c>
@@ -10111,7 +10706,7 @@
         <v>"TOPWT"</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>226</v>
       </c>
@@ -10150,7 +10745,7 @@
         <v>"TOTWT"</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>226</v>
       </c>
@@ -10189,7 +10784,7 @@
         <v>"TURFAC"</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>226</v>
       </c>
@@ -10228,7 +10823,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -10267,7 +10862,7 @@
         <v>"YRDOY"</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>226</v>
       </c>
@@ -10306,7 +10901,7 @@
         <v>"YRPLT"</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>226</v>
       </c>
@@ -10345,7 +10940,7 @@
         <v>"MDATE"</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>230</v>
       </c>
@@ -10384,7 +10979,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -10423,7 +11018,7 @@
         <v>"AGRRT"</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>230</v>
       </c>
@@ -10462,7 +11057,7 @@
         <v>"CROP"</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>230</v>
       </c>
@@ -10501,7 +11096,7 @@
         <v>"DLAYR"</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>230</v>
       </c>
@@ -10540,7 +11135,7 @@
         <v>"DS"</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>230</v>
       </c>
@@ -10579,7 +11174,7 @@
         <v>"DTX"</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>230</v>
       </c>
@@ -10618,7 +11213,7 @@
         <v>"DUL"</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>230</v>
       </c>
@@ -10657,7 +11252,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>230</v>
       </c>
@@ -10696,7 +11291,7 @@
         <v>"FRRT"</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>230</v>
       </c>
@@ -10735,7 +11330,7 @@
         <v>"ISWWAT"</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>230</v>
       </c>
@@ -10774,7 +11369,7 @@
         <v>"LL"</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>230</v>
       </c>
@@ -10813,7 +11408,7 @@
         <v>"NLAYR"</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>230</v>
       </c>
@@ -10852,7 +11447,7 @@
         <v>"PG"</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>230</v>
       </c>
@@ -10891,7 +11486,7 @@
         <v>"PLTPOP"</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>230</v>
       </c>
@@ -10930,7 +11525,7 @@
         <v>"RO"</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>230</v>
       </c>
@@ -10969,7 +11564,7 @@
         <v>"RP"</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>230</v>
       </c>
@@ -11008,7 +11603,7 @@
         <v>"RTWT"</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>230</v>
       </c>
@@ -11047,7 +11642,7 @@
         <v>"SAT"</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>230</v>
       </c>
@@ -11086,7 +11681,7 @@
         <v>"SW"</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>230</v>
       </c>
@@ -11125,7 +11720,7 @@
         <v>"SWFAC"</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>230</v>
       </c>
@@ -11164,7 +11759,7 @@
         <v>"VSTAGE"</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>230</v>
       </c>
@@ -11203,7 +11798,7 @@
         <v>"WR"</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>230</v>
       </c>
@@ -11242,7 +11837,7 @@
         <v>"WRDOTN"</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>230</v>
       </c>
@@ -11281,7 +11876,7 @@
         <v>"WTNEW"</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>230</v>
       </c>
@@ -11320,7 +11915,7 @@
         <v>"RLV"</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -11359,7 +11954,7 @@
         <v>"RTDEP"</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -11398,7 +11993,7 @@
         <v>"SATFAC"</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>230</v>
       </c>
@@ -11437,7 +12032,7 @@
         <v>"SENRT"</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -11476,7 +12071,7 @@
         <v>"SRDOT"</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>252</v>
       </c>
@@ -11515,7 +12110,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>252</v>
       </c>
@@ -11554,7 +12149,7 @@
         <v>"CONTROL"</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>252</v>
       </c>
@@ -11593,7 +12188,7 @@
         <v>"AGRLF"</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>252</v>
       </c>
@@ -11632,7 +12227,7 @@
         <v>"AGRRT"</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>252</v>
       </c>
@@ -11671,7 +12266,7 @@
         <v>"AGRSH2"</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>252</v>
       </c>
@@ -11710,7 +12305,7 @@
         <v>"AGRSTM"</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>252</v>
       </c>
@@ -11749,7 +12344,7 @@
         <v>"CROP"</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>252</v>
       </c>
@@ -11788,7 +12383,7 @@
         <v>"DRPP"</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>252</v>
       </c>
@@ -11827,7 +12422,7 @@
         <v>"DXR57"</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>252</v>
       </c>
@@ -11869,7 +12464,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>252</v>
       </c>
@@ -11911,7 +12506,7 @@
         <v>"FILEGC"</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>252</v>
       </c>
@@ -11953,7 +12548,7 @@
         <v>"FILEIO"</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>252</v>
       </c>
@@ -11992,7 +12587,7 @@
         <v>"FNINSH"</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>252</v>
       </c>
@@ -12031,7 +12626,7 @@
         <v>"FRACDN"</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>252</v>
       </c>
@@ -12070,7 +12665,7 @@
         <v>"LAGSD"</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>252</v>
       </c>
@@ -12109,7 +12704,7 @@
         <v>"LNGPEG"</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -12148,7 +12743,7 @@
         <v>"NDLEAF"</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>252</v>
       </c>
@@ -12187,7 +12782,7 @@
         <v>"NSTRES"</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>252</v>
       </c>
@@ -12226,7 +12821,7 @@
         <v>"PAR"</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>252</v>
       </c>
@@ -12265,7 +12860,7 @@
         <v>"PCNL"</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>252</v>
       </c>
@@ -12304,7 +12899,7 @@
         <v>"PCNRT"</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -12343,7 +12938,7 @@
         <v>"PCNST"</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>252</v>
       </c>
@@ -12382,7 +12977,7 @@
         <v>"PGAVL"</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>252</v>
       </c>
@@ -12421,7 +13016,7 @@
         <v>"PUNCSD"</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -12460,7 +13055,7 @@
         <v>"PUNCTR"</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>252</v>
       </c>
@@ -12499,7 +13094,7 @@
         <v>"PLTPOP"</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -12538,7 +13133,7 @@
         <v>"RPROAV"</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -12577,7 +13172,7 @@
         <v>"RTWT"</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>252</v>
       </c>
@@ -12616,7 +13211,7 @@
         <v>"SDDES"</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>252</v>
       </c>
@@ -12655,7 +13250,7 @@
         <v>"SDNO"</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>252</v>
       </c>
@@ -12694,7 +13289,7 @@
         <v>"SDVAR"</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -12733,7 +13328,7 @@
         <v>"SHELN"</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -12772,7 +13367,7 @@
         <v>"SHVAR"</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -12811,7 +13406,7 @@
         <v>"STMWT"</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>252</v>
       </c>
@@ -12850,7 +13445,7 @@
         <v>"SWFAC"</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -12889,7 +13484,7 @@
         <v>"TAVG"</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>252</v>
       </c>
@@ -12928,7 +13523,7 @@
         <v>"TDUMX"</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>252</v>
       </c>
@@ -12967,7 +13562,7 @@
         <v>"TDUMX2"</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>252</v>
       </c>
@@ -13006,7 +13601,7 @@
         <v>"TGRO"</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>252</v>
       </c>
@@ -13045,7 +13640,7 @@
         <v>"TURFAC"</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -13084,7 +13679,7 @@
         <v>"VSTAGE"</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -13123,7 +13718,7 @@
         <v>"WCRLF"</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -13162,7 +13757,7 @@
         <v>"WCRRT"</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>252</v>
       </c>
@@ -13201,7 +13796,7 @@
         <v>"WCRST"</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -13240,7 +13835,7 @@
         <v>"WNRLF"</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -13279,7 +13874,7 @@
         <v>"WNRRT"</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -13318,7 +13913,7 @@
         <v>"WNRSH"</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -13357,7 +13952,7 @@
         <v>"WNRST"</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -13396,7 +13991,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -13435,7 +14030,7 @@
         <v>"WTSD"</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -13474,7 +14069,7 @@
         <v>"WTSHE"</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>252</v>
       </c>
@@ -13513,7 +14108,7 @@
         <v>"XPOD"</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>252</v>
       </c>
@@ -13552,7 +14147,7 @@
         <v>"NVEG0"</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>252</v>
       </c>
@@ -13591,7 +14186,7 @@
         <v>"NR1"</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>252</v>
       </c>
@@ -13630,7 +14225,7 @@
         <v>"NR2"</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>252</v>
       </c>
@@ -13669,7 +14264,7 @@
         <v>"NR5"</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>252</v>
       </c>
@@ -13708,7 +14303,7 @@
         <v>"NR7"</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>252</v>
       </c>
@@ -13747,7 +14342,7 @@
         <v>"AGRSD1"</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>252</v>
       </c>
@@ -13786,7 +14381,7 @@
         <v>"AGRSD2"</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>252</v>
       </c>
@@ -13825,7 +14420,7 @@
         <v>"AGRVG"</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>252</v>
       </c>
@@ -13864,7 +14459,7 @@
         <v>"AGRVG2"</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>252</v>
       </c>
@@ -13903,7 +14498,7 @@
         <v>"CDMREP"</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>252</v>
       </c>
@@ -13942,7 +14537,7 @@
         <v>"Fnew"</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>252</v>
       </c>
@@ -13981,7 +14576,7 @@
         <v>"FNINL"</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
@@ -14020,7 +14615,7 @@
         <v>"FNINR"</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>252</v>
       </c>
@@ -14059,7 +14654,7 @@
         <v>"FNINS"</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>252</v>
       </c>
@@ -14098,7 +14693,7 @@
         <v>"FNINSD"</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>252</v>
       </c>
@@ -14137,7 +14732,7 @@
         <v>"FRLF"</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>252</v>
       </c>
@@ -14176,7 +14771,7 @@
         <v>"FRRT"</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>252</v>
       </c>
@@ -14215,7 +14810,7 @@
         <v>"FRSTM"</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>252</v>
       </c>
@@ -14254,7 +14849,7 @@
         <v>"GDMSD"</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>252</v>
       </c>
@@ -14293,7 +14888,7 @@
         <v>"GRRAT1"</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>252</v>
       </c>
@@ -14332,7 +14927,7 @@
         <v>"NDMNEW"</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>252</v>
       </c>
@@ -14371,7 +14966,7 @@
         <v>"NDMOLD"</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>252</v>
       </c>
@@ -14410,7 +15005,7 @@
         <v>"NDMREP"</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>252</v>
       </c>
@@ -14449,7 +15044,7 @@
         <v>"NDMSDR"</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>252</v>
       </c>
@@ -14488,7 +15083,7 @@
         <v>"NDMTOT"</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>252</v>
       </c>
@@ -14527,7 +15122,7 @@
         <v>"NDMVEG"</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>252</v>
       </c>
@@ -14566,7 +15161,7 @@
         <v>"NMINEP"</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>252</v>
       </c>
@@ -14605,7 +15200,7 @@
         <v>"NMOBR"</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>252</v>
       </c>
@@ -14644,7 +15239,7 @@
         <v>"PHTIM"</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>252</v>
       </c>
@@ -14683,7 +15278,7 @@
         <v>"PNTIM"</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>252</v>
       </c>
@@ -14722,7 +15317,7 @@
         <v>"POTCAR"</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>252</v>
       </c>
@@ -14761,7 +15356,7 @@
         <v>"POTLIP"</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>252</v>
       </c>
@@ -14800,7 +15395,7 @@
         <v>"SDGR"</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>252</v>
       </c>
@@ -14839,7 +15434,7 @@
         <v>"TURADD"</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>252</v>
       </c>
@@ -14878,7 +15473,7 @@
         <v>"XFRT"</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>252</v>
       </c>
@@ -14917,7 +15512,7 @@
         <v>"YREND"</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>310</v>
       </c>
@@ -14956,7 +15551,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>310</v>
       </c>
@@ -14995,7 +15590,7 @@
         <v>"AGRSD1"</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>310</v>
       </c>
@@ -15034,7 +15629,7 @@
         <v>"AGRSH1"</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -15073,7 +15668,7 @@
         <v>"DLAYR"</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -15112,7 +15707,7 @@
         <v>"DRPP"</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>310</v>
       </c>
@@ -15151,7 +15746,7 @@
         <v>"DUL"</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>310</v>
       </c>
@@ -15190,7 +15785,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>310</v>
       </c>
@@ -15229,7 +15824,7 @@
         <v>"FILEGC"</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>310</v>
       </c>
@@ -15268,7 +15863,7 @@
         <v>"FILEIO"</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>310</v>
       </c>
@@ -15307,7 +15902,7 @@
         <v>"FNINL"</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>310</v>
       </c>
@@ -15346,7 +15941,7 @@
         <v>"FNINSD"</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -15385,7 +15980,7 @@
         <v>"FNINSH"</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -15424,7 +16019,7 @@
         <v>"GDMSD"</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>310</v>
       </c>
@@ -15463,7 +16058,7 @@
         <v>"GRRAT1"</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -15502,7 +16097,7 @@
         <v>"ISWWAT"</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -15541,7 +16136,7 @@
         <v>"LL"</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -15580,7 +16175,7 @@
         <v>"NAVL"</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -15619,7 +16214,7 @@
         <v>"NDSET"</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -15658,7 +16253,7 @@
         <v>"NLAYR"</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -15697,7 +16292,7 @@
         <v>"NRUSSH"</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>310</v>
       </c>
@@ -15736,7 +16331,7 @@
         <v>"NSTRES"</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>310</v>
       </c>
@@ -15775,7 +16370,7 @@
         <v>"PGAVL"</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>310</v>
       </c>
@@ -15814,7 +16409,7 @@
         <v>"PHTHRS"</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>310</v>
       </c>
@@ -15853,7 +16448,7 @@
         <v>"PHTIM"</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>310</v>
       </c>
@@ -15892,7 +16487,7 @@
         <v>"PNTIM"</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>310</v>
       </c>
@@ -15931,7 +16526,7 @@
         <v>"PUNCSD"</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>310</v>
       </c>
@@ -15970,7 +16565,7 @@
         <v>"PUNCTR"</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>310</v>
       </c>
@@ -16009,7 +16604,7 @@
         <v>"RNITP"</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>310</v>
       </c>
@@ -16048,7 +16643,7 @@
         <v>"SDDES"</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>310</v>
       </c>
@@ -16087,7 +16682,7 @@
         <v>"SDGR"</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>310</v>
       </c>
@@ -16126,7 +16721,7 @@
         <v>"SHELWT"</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>310</v>
       </c>
@@ -16165,7 +16760,7 @@
         <v>"SW"</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>310</v>
       </c>
@@ -16204,7 +16799,7 @@
         <v>"SWFAC"</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>310</v>
       </c>
@@ -16243,7 +16838,7 @@
         <v>"TDUMX"</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>310</v>
       </c>
@@ -16282,7 +16877,7 @@
         <v>"TGRO"</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>310</v>
       </c>
@@ -16321,7 +16916,7 @@
         <v>"TURADD"</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>310</v>
       </c>
@@ -16360,7 +16955,7 @@
         <v>"XFRT"</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>310</v>
       </c>
@@ -16399,7 +16994,7 @@
         <v>"YRDOY"</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>310</v>
       </c>
@@ -16438,7 +17033,7 @@
         <v>"YRNR1"</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>310</v>
       </c>
@@ -16477,7 +17072,7 @@
         <v>"YRNR2"</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>310</v>
       </c>
@@ -16516,7 +17111,7 @@
         <v>"PStres2"</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>310</v>
       </c>
@@ -16555,7 +17150,7 @@
         <v>"YRPLT"</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>310</v>
       </c>
@@ -16594,7 +17189,7 @@
         <v>"AGRSD3"</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>310</v>
       </c>
@@ -16633,7 +17228,7 @@
         <v>"LAGSD"</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>310</v>
       </c>
@@ -16672,7 +17267,7 @@
         <v>"LNGPEG"</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>310</v>
       </c>
@@ -16711,7 +17306,7 @@
         <v>"NGRSD"</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>310</v>
       </c>
@@ -16750,7 +17345,7 @@
         <v>"NGRSH"</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>310</v>
       </c>
@@ -16789,7 +17384,7 @@
         <v>"PCTMAT"</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>310</v>
       </c>
@@ -16828,7 +17423,7 @@
         <v>"PODNO"</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>310</v>
       </c>
@@ -16867,7 +17462,7 @@
         <v>"POTCAR"</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>310</v>
       </c>
@@ -16906,7 +17501,7 @@
         <v>"POTLIP"</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -16948,7 +17543,7 @@
         <v>"SDNO"</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>310</v>
       </c>
@@ -16987,7 +17582,7 @@
         <v>"SDVAR"</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>310</v>
       </c>
@@ -17026,7 +17621,7 @@
         <v>"SEEDNO"</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>310</v>
       </c>
@@ -17068,7 +17663,7 @@
         <v>"SHELN"</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>310</v>
       </c>
@@ -17107,7 +17702,7 @@
         <v>"SHVAR"</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>310</v>
       </c>
@@ -17146,7 +17741,7 @@
         <v>"WSDDTN"</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>310</v>
       </c>
@@ -17185,7 +17780,7 @@
         <v>"WSHDTN"</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>310</v>
       </c>
@@ -17224,7 +17819,7 @@
         <v>"WTABRT"</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>310</v>
       </c>
@@ -17266,7 +17861,7 @@
         <v>"WTSD"</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>310</v>
       </c>
@@ -17308,7 +17903,7 @@
         <v>"WTSHE"</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>310</v>
       </c>
@@ -17347,7 +17942,7 @@
         <v>"WTSHMT"</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>310</v>
       </c>
@@ -17389,7 +17984,7 @@
         <v>"FLWN"</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>429</v>
       </c>
@@ -17428,7 +18023,7 @@
         <v>"AGRSD1"</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>429</v>
       </c>
@@ -17467,7 +18062,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>429</v>
       </c>
@@ -17506,7 +18101,7 @@
         <v>"FNINSD"</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>429</v>
       </c>
@@ -17545,7 +18140,7 @@
         <v>"GDMSD"</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>429</v>
       </c>
@@ -17584,7 +18179,7 @@
         <v>"NAVL"</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>429</v>
       </c>
@@ -17623,7 +18218,7 @@
         <v>"PGAVLR"</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>429</v>
       </c>
@@ -17662,7 +18257,7 @@
         <v>"POTCAR"</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>429</v>
       </c>
@@ -17701,7 +18296,7 @@
         <v>"POTLIP"</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>429</v>
       </c>
@@ -17741,7 +18336,7 @@
         <v>"AGRSD3"</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>429</v>
       </c>
@@ -17780,7 +18375,7 @@
         <v>"ANINSD"</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>429</v>
       </c>
@@ -17819,7 +18414,7 @@
         <v>"CUMSIG"</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>429</v>
       </c>
@@ -17858,7 +18453,7 @@
         <v>"RSD"</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>429</v>
       </c>
@@ -17897,7 +18492,7 @@
         <v>"RUNINIT"</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>321</v>
       </c>
@@ -17936,7 +18531,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>321</v>
       </c>
@@ -17975,7 +18570,7 @@
         <v>"AGRLF"</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>321</v>
       </c>
@@ -18014,7 +18609,7 @@
         <v>"AGRRT"</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>321</v>
       </c>
@@ -18053,7 +18648,7 @@
         <v>"AGRSTM"</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>321</v>
       </c>
@@ -18092,7 +18687,7 @@
         <v>"CMINEP"</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>321</v>
       </c>
@@ -18131,7 +18726,7 @@
         <v>"CSAVEV"</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>321</v>
       </c>
@@ -18170,7 +18765,7 @@
         <v>"DTX"</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>321</v>
       </c>
@@ -18209,7 +18804,7 @@
         <v>"DXR57"</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>321</v>
       </c>
@@ -18248,7 +18843,7 @@
         <v>"ECONO"</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>321</v>
       </c>
@@ -18287,7 +18882,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>321</v>
       </c>
@@ -18326,7 +18921,7 @@
         <v>"FILEGC"</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>321</v>
       </c>
@@ -18365,7 +18960,7 @@
         <v>"FNINL"</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>321</v>
       </c>
@@ -18404,7 +18999,7 @@
         <v>"FNINR"</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>321</v>
       </c>
@@ -18443,7 +19038,7 @@
         <v>"FNINS"</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>321</v>
       </c>
@@ -18482,7 +19077,7 @@
         <v>"KCAN"</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>321</v>
       </c>
@@ -18521,7 +19116,7 @@
         <v>"NAVL"</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>321</v>
       </c>
@@ -18560,7 +19155,7 @@
         <v>"NDMNEW"</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>321</v>
       </c>
@@ -18599,7 +19194,7 @@
         <v>"NDMOLD"</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>321</v>
       </c>
@@ -18638,7 +19233,7 @@
         <v>"NFIXN"</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>321</v>
       </c>
@@ -18677,7 +19272,7 @@
         <v>"NMINEA"</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>321</v>
       </c>
@@ -18716,7 +19311,7 @@
         <v>"NR1"</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>321</v>
       </c>
@@ -18755,7 +19350,7 @@
         <v>"PAR"</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>321</v>
       </c>
@@ -18794,7 +19389,7 @@
         <v>"PCH2O"</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>321</v>
       </c>
@@ -18833,7 +19428,7 @@
         <v>"PG"</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>321</v>
       </c>
@@ -18872,7 +19467,7 @@
         <v>"PGAVL"</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>321</v>
       </c>
@@ -18911,7 +19506,7 @@
         <v>"PStres2"</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>321</v>
       </c>
@@ -18950,7 +19545,7 @@
         <v>"ROWSPC"</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>321</v>
       </c>
@@ -18989,7 +19584,7 @@
         <v>"RVSTGE"</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>321</v>
       </c>
@@ -19028,7 +19623,7 @@
         <v>"STMWT"</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>321</v>
       </c>
@@ -19067,7 +19662,7 @@
         <v>"TGRO"</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>321</v>
       </c>
@@ -19106,7 +19701,7 @@
         <v>"TRNU"</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>321</v>
       </c>
@@ -19145,7 +19740,7 @@
         <v>"TURFAC"</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>321</v>
       </c>
@@ -19184,7 +19779,7 @@
         <v>"VSTAGE"</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -19223,7 +19818,7 @@
         <v>"WCRLF"</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>321</v>
       </c>
@@ -19262,7 +19857,7 @@
         <v>"WCRRT"</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>321</v>
       </c>
@@ -19301,7 +19896,7 @@
         <v>"WCRSH"</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>321</v>
       </c>
@@ -19340,7 +19935,7 @@
         <v>"WCRST"</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>321</v>
       </c>
@@ -19379,7 +19974,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>321</v>
       </c>
@@ -19418,7 +20013,7 @@
         <v>"XLAI"</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>321</v>
       </c>
@@ -19457,7 +20052,7 @@
         <v>"YRDOY"</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>321</v>
       </c>
@@ -19496,7 +20091,7 @@
         <v>"YREMRG"</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>321</v>
       </c>
@@ -19535,7 +20130,7 @@
         <v>"AGRVG"</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>321</v>
       </c>
@@ -19574,7 +20169,7 @@
         <v>"FRLF"</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>321</v>
       </c>
@@ -19613,7 +20208,7 @@
         <v>"FRRT"</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>321</v>
       </c>
@@ -19652,7 +20247,7 @@
         <v>"FRSTM"</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>321</v>
       </c>
@@ -19691,7 +20286,7 @@
         <v>"CADLF"</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>321</v>
       </c>
@@ -19730,7 +20325,7 @@
         <v>"CADST"</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>321</v>
       </c>
@@ -19769,7 +20364,7 @@
         <v>"CANHT"</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>321</v>
       </c>
@@ -19808,7 +20403,7 @@
         <v>"CANWH"</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>321</v>
       </c>
@@ -19847,7 +20442,7 @@
         <v>"CMINEA"</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>321</v>
       </c>
@@ -19886,7 +20481,7 @@
         <v>"CRUSLF"</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>321</v>
       </c>
@@ -19925,7 +20520,7 @@
         <v>"CRUSRT"</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>321</v>
       </c>
@@ -19964,7 +20559,7 @@
         <v>"CRUSSH"</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>321</v>
       </c>
@@ -20003,7 +20598,7 @@
         <v>"CRUSST"</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>321</v>
       </c>
@@ -20042,7 +20637,7 @@
         <v>"EXCESS"</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>321</v>
       </c>
@@ -20081,7 +20676,7 @@
         <v>"NADLF"</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>321</v>
       </c>
@@ -20120,7 +20715,7 @@
         <v>"NADRT"</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>321</v>
       </c>
@@ -20159,7 +20754,7 @@
         <v>"NADST"</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>321</v>
       </c>
@@ -20198,7 +20793,7 @@
         <v>"NGRLF"</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>321</v>
       </c>
@@ -20237,7 +20832,7 @@
         <v>"NGRRT"</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>321</v>
       </c>
@@ -20276,7 +20871,7 @@
         <v>"NGRST"</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>321</v>
       </c>
@@ -20315,7 +20910,7 @@
         <v>"NSTRES"</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>321</v>
       </c>
@@ -20354,7 +20949,7 @@
         <v>"TNLEAK"</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>321</v>
       </c>
@@ -20393,7 +20988,7 @@
         <v>"WLDOTN"</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>321</v>
       </c>
@@ -20432,7 +21027,7 @@
         <v>"WRDOTN"</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>321</v>
       </c>
@@ -20471,7 +21066,7 @@
         <v>"WSDOTN"</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>334</v>
       </c>
@@ -20510,7 +21105,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>334</v>
       </c>
@@ -20549,7 +21144,7 @@
         <v>"TGRO"</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>334</v>
       </c>
@@ -20588,7 +21183,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>334</v>
       </c>
@@ -20627,7 +21222,7 @@
         <v>"YRDOY"</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>334</v>
       </c>
@@ -20666,7 +21261,7 @@
         <v>"YRNR2"</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>334</v>
       </c>
@@ -20705,7 +21300,7 @@
         <v>"PODWTD"</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>334</v>
       </c>
@@ -20744,7 +21339,7 @@
         <v>"SDNO"</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>334</v>
       </c>
@@ -20783,7 +21378,7 @@
         <v>"SHELN"</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>334</v>
       </c>
@@ -20822,7 +21417,7 @@
         <v>"SWIDOT"</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>334</v>
       </c>
@@ -20861,7 +21456,7 @@
         <v>"WSHIDT"</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>334</v>
       </c>
@@ -20900,7 +21495,7 @@
         <v>"WTSD"</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>334</v>
       </c>
@@ -20939,7 +21534,7 @@
         <v>"WTSHE"</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>334</v>
       </c>
@@ -20978,7 +21573,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>336</v>
       </c>
@@ -21017,7 +21612,7 @@
         <v>"DYNAMIC"</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>336</v>
       </c>
@@ -21056,7 +21651,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>336</v>
       </c>
@@ -21095,7 +21690,7 @@
         <v>"CLW"</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>336</v>
       </c>
@@ -21134,7 +21729,7 @@
         <v>"DTX"</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>336</v>
       </c>
@@ -21173,7 +21768,7 @@
         <v>"KCAN"</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>336</v>
       </c>
@@ -21212,7 +21807,7 @@
         <v>"NR7"</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>336</v>
       </c>
@@ -21251,7 +21846,7 @@
         <v>"NRUSLF"</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>336</v>
       </c>
@@ -21290,7 +21885,7 @@
         <v>"PAR"</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>336</v>
       </c>
@@ -21329,7 +21924,7 @@
         <v>"RHOL"</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>336</v>
       </c>
@@ -21368,7 +21963,7 @@
         <v>"SLAAD"</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>336</v>
       </c>
@@ -21407,7 +22002,7 @@
         <v>"STMWT"</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>336</v>
       </c>
@@ -21446,7 +22041,7 @@
         <v>"SWFAC"</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>336</v>
       </c>
@@ -21485,7 +22080,7 @@
         <v>"VSTAGE"</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>336</v>
       </c>
@@ -21524,7 +22119,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>336</v>
       </c>
@@ -21719,7 +22314,7 @@
         <v>"SSNDOT"</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>337</v>
       </c>
@@ -21758,7 +22353,7 @@
         <v>"FREEZ2"</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>337</v>
       </c>
@@ -21797,7 +22392,7 @@
         <v>"IDETO"</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>337</v>
       </c>
@@ -21836,7 +22431,7 @@
         <v>"NOUTDO"</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>337</v>
       </c>
@@ -21875,7 +22470,7 @@
         <v>"NRUSLF"</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>337</v>
       </c>
@@ -21914,7 +22509,7 @@
         <v>"SLDOT"</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>337</v>
       </c>
@@ -21953,7 +22548,7 @@
         <v>"TMIN"</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>337</v>
       </c>
@@ -21992,7 +22587,7 @@
         <v>"WTLF"</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -22031,7 +22626,7 @@
         <v>"YRDOY"</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>337</v>
       </c>
@@ -22070,7 +22665,7 @@
         <v>"YRPLT"</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>337</v>
       </c>
@@ -22109,7 +22704,7 @@
         <v>"MDATE"</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>337</v>
       </c>
@@ -22148,7 +22743,7 @@
         <v>"WLFDOT"</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>416</v>
       </c>
@@ -22187,7 +22782,7 @@
         <v>"AGRNOD"</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>416</v>
       </c>
@@ -22226,7 +22821,7 @@
         <v>"CNODMN"</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>416</v>
       </c>
@@ -22265,7 +22860,7 @@
         <v>"CTONOD"</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>416</v>
       </c>
@@ -22304,7 +22899,7 @@
         <v>"DLAYR"</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>416</v>
       </c>
@@ -22343,7 +22938,7 @@
         <v>"DXR57"</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>416</v>
       </c>
@@ -22382,7 +22977,7 @@
         <v>"FILECC"</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>416</v>
       </c>
@@ -22421,7 +23016,7 @@
         <v>"FILEIO"</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>416</v>
       </c>
@@ -22460,7 +23055,7 @@
         <v>"NLAYR"</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>416</v>
       </c>
@@ -22499,7 +23094,7 @@
         <v>"NR7"</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>416</v>
       </c>
@@ -22538,7 +23133,7 @@
         <v>"PLTPOP"</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>416</v>
       </c>
@@ -22577,7 +23172,7 @@
         <v>"SAT"</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>416</v>
       </c>
@@ -22616,7 +23211,7 @@
         <v>"ST"</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>416</v>
       </c>
@@ -22655,7 +23250,7 @@
         <v>"SW"</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>416</v>
       </c>
@@ -22694,7 +23289,7 @@
         <v>"TURFAC"</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>416</v>
       </c>
@@ -22733,7 +23328,7 @@
         <v>"CNOD"</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>416</v>
       </c>
@@ -22772,7 +23367,7 @@
         <v>"DWNOD"</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>416</v>
       </c>
@@ -22811,7 +23406,7 @@
         <v>"DWNODA"</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>416</v>
       </c>
@@ -22850,7 +23445,7 @@
         <v>"NDTH"</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>416</v>
       </c>
@@ -22889,7 +23484,7 @@
         <v>"NFIXN"</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>416</v>
       </c>
@@ -22928,7 +23523,7 @@
         <v>"NODGR"</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>416</v>
       </c>
@@ -22967,7 +23562,7 @@
         <v>"WTNFX"</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>416</v>
       </c>
@@ -23006,7 +23601,7 @@
         <v>"SENNOD"</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>421</v>
       </c>
@@ -23017,35 +23612,35 @@
         <v>347</v>
       </c>
       <c r="E500" t="str">
-        <f t="shared" ref="E500:E513" si="83">CONCATENATE("simDataVars$",B500,"  &lt;-  ")</f>
+        <f t="shared" ref="E500:E514" si="83">CONCATENATE("simDataVars$",B500,"  &lt;-  ")</f>
         <v xml:space="preserve">simDataVars$DMNEW  &lt;-  </v>
       </c>
       <c r="G500" t="str">
-        <f t="shared" ref="G500:G513" si="84">CONCATENATE("assign(","""",B500,"""",", ",B500,", envir = env)")</f>
+        <f t="shared" ref="G500:G514" si="84">CONCATENATE("assign(","""",B500,"""",", ",B500,", envir = env)")</f>
         <v>assign("DMNEW", DMNEW, envir = env)</v>
       </c>
       <c r="H500" t="str">
-        <f t="shared" ref="H500:H513" si="85">CONCATENATE(B500,"  &lt;-  numeric (outn)")</f>
+        <f t="shared" ref="H500:H514" si="85">CONCATENATE(B500,"  &lt;-  numeric (outn)")</f>
         <v>DMNEW  &lt;-  numeric (outn)</v>
       </c>
       <c r="I500" t="str">
-        <f t="shared" ref="I500:I513" si="86">"simVars$"&amp;B500&amp;"[1]"</f>
+        <f t="shared" ref="I500:I514" si="86">"simVars$"&amp;B500&amp;"[1]"</f>
         <v>simVars$DMNEW[1]</v>
       </c>
       <c r="J500" t="str">
-        <f t="shared" ref="J500:J513" si="87">B500&amp;"[i] &lt;- "&amp;I500</f>
+        <f t="shared" ref="J500:J514" si="87">B500&amp;"[i] &lt;- "&amp;I500</f>
         <v>DMNEW[i] &lt;- simVars$DMNEW[1]</v>
       </c>
       <c r="K500" t="str">
-        <f t="shared" ref="K500:K513" si="88">CONCATENATE("assign(","""",B500,"""",", ",B500,", envir = globalenv())")</f>
+        <f t="shared" ref="K500:K514" si="88">CONCATENATE("assign(","""",B500,"""",", ",B500,", envir = globalenv())")</f>
         <v>assign("DMNEW", DMNEW, envir = globalenv())</v>
       </c>
       <c r="L500" t="str">
-        <f t="shared" ref="L500:L513" si="89">""""&amp;B500&amp;""""</f>
+        <f t="shared" ref="L500:L514" si="89">""""&amp;B500&amp;""""</f>
         <v>"DMNEW"</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>421</v>
       </c>
@@ -23084,7 +23679,7 @@
         <v>"NMINEP"</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>421</v>
       </c>
@@ -23123,7 +23718,7 @@
         <v>"NMOBR"</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>421</v>
       </c>
@@ -23162,7 +23757,7 @@
         <v>"RPRO"</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>421</v>
       </c>
@@ -23201,7 +23796,7 @@
         <v>"TRNU"</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>421</v>
       </c>
@@ -23240,7 +23835,7 @@
         <v>"WNRLF"</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>421</v>
       </c>
@@ -23279,7 +23874,7 @@
         <v>"WNRRT"</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>421</v>
       </c>
@@ -23318,7 +23913,7 @@
         <v>"WNRSH"</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>421</v>
       </c>
@@ -23357,7 +23952,7 @@
         <v>"WNRST"</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>421</v>
       </c>
@@ -23396,7 +23991,7 @@
         <v>"NMINEA"</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>421</v>
       </c>
@@ -23435,7 +24030,7 @@
         <v>"NRUSLF"</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>421</v>
       </c>
@@ -23474,7 +24069,7 @@
         <v>"NRUSRT"</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>421</v>
       </c>
@@ -23513,7 +24108,7 @@
         <v>"NRUSSH"</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>421</v>
       </c>
@@ -23552,19 +24147,749 @@
         <v>"NRUSST"</v>
       </c>
     </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>506</v>
+      </c>
+      <c r="B514" t="s">
+        <v>350</v>
+      </c>
+      <c r="C514" t="s">
+        <v>351</v>
+      </c>
+      <c r="E514" t="str">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve">simDataVars$DYNAMIC  &lt;-  </v>
+      </c>
+      <c r="G514" t="str">
+        <f t="shared" si="84"/>
+        <v>assign("DYNAMIC", DYNAMIC, envir = env)</v>
+      </c>
+      <c r="H514" t="str">
+        <f t="shared" si="85"/>
+        <v>DYNAMIC  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I514" t="str">
+        <f t="shared" si="86"/>
+        <v>simVars$DYNAMIC[1]</v>
+      </c>
+      <c r="J514" t="str">
+        <f t="shared" si="87"/>
+        <v>DYNAMIC[i] &lt;- simVars$DYNAMIC[1]</v>
+      </c>
+      <c r="K514" t="str">
+        <f t="shared" si="88"/>
+        <v>assign("DYNAMIC", DYNAMIC, envir = globalenv())</v>
+      </c>
+      <c r="L514" t="str">
+        <f t="shared" si="89"/>
+        <v>"DYNAMIC"</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>506</v>
+      </c>
+      <c r="B515" t="s">
+        <v>233</v>
+      </c>
+      <c r="C515" t="s">
+        <v>347</v>
+      </c>
+      <c r="E515" t="str">
+        <f t="shared" ref="E515:E532" si="90">CONCATENATE("simDataVars$",B515,"  &lt;-  ")</f>
+        <v xml:space="preserve">simDataVars$DLAYR  &lt;-  </v>
+      </c>
+      <c r="G515" t="str">
+        <f t="shared" ref="G515:G532" si="91">CONCATENATE("assign(","""",B515,"""",", ",B515,", envir = env)")</f>
+        <v>assign("DLAYR", DLAYR, envir = env)</v>
+      </c>
+      <c r="H515" t="str">
+        <f t="shared" ref="H515:H532" si="92">CONCATENATE(B515,"  &lt;-  numeric (outn)")</f>
+        <v>DLAYR  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I515" t="str">
+        <f t="shared" ref="I515:I532" si="93">"simVars$"&amp;B515&amp;"[1]"</f>
+        <v>simVars$DLAYR[1]</v>
+      </c>
+      <c r="J515" t="str">
+        <f t="shared" ref="J515:J532" si="94">B515&amp;"[i] &lt;- "&amp;I515</f>
+        <v>DLAYR[i] &lt;- simVars$DLAYR[1]</v>
+      </c>
+      <c r="K515" t="str">
+        <f t="shared" ref="K515:K532" si="95">CONCATENATE("assign(","""",B515,"""",", ",B515,", envir = globalenv())")</f>
+        <v>assign("DLAYR", DLAYR, envir = globalenv())</v>
+      </c>
+      <c r="L515" t="str">
+        <f t="shared" ref="L515:L532" si="96">""""&amp;B515&amp;""""</f>
+        <v>"DLAYR"</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>506</v>
+      </c>
+      <c r="B516" t="s">
+        <v>236</v>
+      </c>
+      <c r="C516" t="s">
+        <v>347</v>
+      </c>
+      <c r="E516" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$DUL  &lt;-  </v>
+      </c>
+      <c r="G516" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("DUL", DUL, envir = env)</v>
+      </c>
+      <c r="H516" t="str">
+        <f t="shared" si="92"/>
+        <v>DUL  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I516" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$DUL[1]</v>
+      </c>
+      <c r="J516" t="str">
+        <f t="shared" si="94"/>
+        <v>DUL[i] &lt;- simVars$DUL[1]</v>
+      </c>
+      <c r="K516" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("DUL", DUL, envir = globalenv())</v>
+      </c>
+      <c r="L516" t="str">
+        <f t="shared" si="96"/>
+        <v>"DUL"</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>506</v>
+      </c>
+      <c r="B517" t="s">
+        <v>82</v>
+      </c>
+      <c r="C517" t="s">
+        <v>347</v>
+      </c>
+      <c r="E517" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$FILECC  &lt;-  </v>
+      </c>
+      <c r="G517" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("FILECC", FILECC, envir = env)</v>
+      </c>
+      <c r="H517" t="str">
+        <f t="shared" si="92"/>
+        <v>FILECC  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I517" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$FILECC[1]</v>
+      </c>
+      <c r="J517" t="str">
+        <f t="shared" si="94"/>
+        <v>FILECC[i] &lt;- simVars$FILECC[1]</v>
+      </c>
+      <c r="K517" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("FILECC", FILECC, envir = globalenv())</v>
+      </c>
+      <c r="L517" t="str">
+        <f t="shared" si="96"/>
+        <v>"FILECC"</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>506</v>
+      </c>
+      <c r="B518" t="s">
+        <v>507</v>
+      </c>
+      <c r="C518" t="s">
+        <v>347</v>
+      </c>
+      <c r="E518" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$KG2PPM  &lt;-  </v>
+      </c>
+      <c r="G518" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("KG2PPM", KG2PPM, envir = env)</v>
+      </c>
+      <c r="H518" t="str">
+        <f t="shared" si="92"/>
+        <v>KG2PPM  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I518" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$KG2PPM[1]</v>
+      </c>
+      <c r="J518" t="str">
+        <f t="shared" si="94"/>
+        <v>KG2PPM[i] &lt;- simVars$KG2PPM[1]</v>
+      </c>
+      <c r="K518" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("KG2PPM", KG2PPM, envir = globalenv())</v>
+      </c>
+      <c r="L518" t="str">
+        <f t="shared" si="96"/>
+        <v>"KG2PPM"</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>506</v>
+      </c>
+      <c r="B519" t="s">
+        <v>239</v>
+      </c>
+      <c r="C519" t="s">
+        <v>347</v>
+      </c>
+      <c r="E519" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$LL  &lt;-  </v>
+      </c>
+      <c r="G519" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("LL", LL, envir = env)</v>
+      </c>
+      <c r="H519" t="str">
+        <f t="shared" si="92"/>
+        <v>LL  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I519" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$LL[1]</v>
+      </c>
+      <c r="J519" t="str">
+        <f t="shared" si="94"/>
+        <v>LL[i] &lt;- simVars$LL[1]</v>
+      </c>
+      <c r="K519" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("LL", LL, envir = globalenv())</v>
+      </c>
+      <c r="L519" t="str">
+        <f t="shared" si="96"/>
+        <v>"LL"</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>506</v>
+      </c>
+      <c r="B520" t="s">
+        <v>299</v>
+      </c>
+      <c r="C520" t="s">
+        <v>347</v>
+      </c>
+      <c r="E520" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$NDMSDR  &lt;-  </v>
+      </c>
+      <c r="G520" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("NDMSDR", NDMSDR, envir = env)</v>
+      </c>
+      <c r="H520" t="str">
+        <f t="shared" si="92"/>
+        <v>NDMSDR  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I520" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$NDMSDR[1]</v>
+      </c>
+      <c r="J520" t="str">
+        <f t="shared" si="94"/>
+        <v>NDMSDR[i] &lt;- simVars$NDMSDR[1]</v>
+      </c>
+      <c r="K520" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("NDMSDR", NDMSDR, envir = globalenv())</v>
+      </c>
+      <c r="L520" t="str">
+        <f t="shared" si="96"/>
+        <v>"NDMSDR"</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>506</v>
+      </c>
+      <c r="B521" t="s">
+        <v>300</v>
+      </c>
+      <c r="C521" t="s">
+        <v>347</v>
+      </c>
+      <c r="E521" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$NDMTOT  &lt;-  </v>
+      </c>
+      <c r="G521" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("NDMTOT", NDMTOT, envir = env)</v>
+      </c>
+      <c r="H521" t="str">
+        <f t="shared" si="92"/>
+        <v>NDMTOT  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I521" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$NDMTOT[1]</v>
+      </c>
+      <c r="J521" t="str">
+        <f t="shared" si="94"/>
+        <v>NDMTOT[i] &lt;- simVars$NDMTOT[1]</v>
+      </c>
+      <c r="K521" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("NDMTOT", NDMTOT, envir = globalenv())</v>
+      </c>
+      <c r="L521" t="str">
+        <f t="shared" si="96"/>
+        <v>"NDMTOT"</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>506</v>
+      </c>
+      <c r="B522" t="s">
+        <v>482</v>
+      </c>
+      <c r="C522" t="s">
+        <v>347</v>
+      </c>
+      <c r="E522" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$NH4  &lt;-  </v>
+      </c>
+      <c r="G522" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("NH4", NH4, envir = env)</v>
+      </c>
+      <c r="H522" t="str">
+        <f t="shared" si="92"/>
+        <v>NH4  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I522" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$NH4[1]</v>
+      </c>
+      <c r="J522" t="str">
+        <f t="shared" si="94"/>
+        <v>NH4[i] &lt;- simVars$NH4[1]</v>
+      </c>
+      <c r="K522" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("NH4", NH4, envir = globalenv())</v>
+      </c>
+      <c r="L522" t="str">
+        <f t="shared" si="96"/>
+        <v>"NH4"</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>506</v>
+      </c>
+      <c r="B523" t="s">
+        <v>481</v>
+      </c>
+      <c r="C523" t="s">
+        <v>347</v>
+      </c>
+      <c r="E523" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$NO3  &lt;-  </v>
+      </c>
+      <c r="G523" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("NO3", NO3, envir = env)</v>
+      </c>
+      <c r="H523" t="str">
+        <f t="shared" si="92"/>
+        <v>NO3  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I523" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$NO3[1]</v>
+      </c>
+      <c r="J523" t="str">
+        <f t="shared" si="94"/>
+        <v>NO3[i] &lt;- simVars$NO3[1]</v>
+      </c>
+      <c r="K523" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("NO3", NO3, envir = globalenv())</v>
+      </c>
+      <c r="L523" t="str">
+        <f t="shared" si="96"/>
+        <v>"NO3"</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>506</v>
+      </c>
+      <c r="B524" t="s">
+        <v>240</v>
+      </c>
+      <c r="C524" t="s">
+        <v>347</v>
+      </c>
+      <c r="E524" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$NLAYR  &lt;-  </v>
+      </c>
+      <c r="G524" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("NLAYR", NLAYR, envir = env)</v>
+      </c>
+      <c r="H524" t="str">
+        <f t="shared" si="92"/>
+        <v>NLAYR  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I524" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$NLAYR[1]</v>
+      </c>
+      <c r="J524" t="str">
+        <f t="shared" si="94"/>
+        <v>NLAYR[i] &lt;- simVars$NLAYR[1]</v>
+      </c>
+      <c r="K524" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("NLAYR", NLAYR, envir = globalenv())</v>
+      </c>
+      <c r="L524" t="str">
+        <f t="shared" si="96"/>
+        <v>"NLAYR"</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>506</v>
+      </c>
+      <c r="B525" t="s">
+        <v>249</v>
+      </c>
+      <c r="C525" t="s">
+        <v>347</v>
+      </c>
+      <c r="E525" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$RLV  &lt;-  </v>
+      </c>
+      <c r="G525" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("RLV", RLV, envir = env)</v>
+      </c>
+      <c r="H525" t="str">
+        <f t="shared" si="92"/>
+        <v>RLV  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I525" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$RLV[1]</v>
+      </c>
+      <c r="J525" t="str">
+        <f t="shared" si="94"/>
+        <v>RLV[i] &lt;- simVars$RLV[1]</v>
+      </c>
+      <c r="K525" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("RLV", RLV, envir = globalenv())</v>
+      </c>
+      <c r="L525" t="str">
+        <f t="shared" si="96"/>
+        <v>"RLV"</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>506</v>
+      </c>
+      <c r="B526" t="s">
+        <v>244</v>
+      </c>
+      <c r="C526" t="s">
+        <v>347</v>
+      </c>
+      <c r="E526" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$SAT  &lt;-  </v>
+      </c>
+      <c r="G526" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("SAT", SAT, envir = env)</v>
+      </c>
+      <c r="H526" t="str">
+        <f t="shared" si="92"/>
+        <v>SAT  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I526" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$SAT[1]</v>
+      </c>
+      <c r="J526" t="str">
+        <f t="shared" si="94"/>
+        <v>SAT[i] &lt;- simVars$SAT[1]</v>
+      </c>
+      <c r="K526" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("SAT", SAT, envir = globalenv())</v>
+      </c>
+      <c r="L526" t="str">
+        <f t="shared" si="96"/>
+        <v>"SAT"</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>506</v>
+      </c>
+      <c r="B527" t="s">
+        <v>245</v>
+      </c>
+      <c r="C527" t="s">
+        <v>347</v>
+      </c>
+      <c r="E527" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$SW  &lt;-  </v>
+      </c>
+      <c r="G527" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("SW", SW, envir = env)</v>
+      </c>
+      <c r="H527" t="str">
+        <f t="shared" si="92"/>
+        <v>SW  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I527" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$SW[1]</v>
+      </c>
+      <c r="J527" t="str">
+        <f t="shared" si="94"/>
+        <v>SW[i] &lt;- simVars$SW[1]</v>
+      </c>
+      <c r="K527" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("SW", SW, envir = globalenv())</v>
+      </c>
+      <c r="L527" t="str">
+        <f t="shared" si="96"/>
+        <v>"SW"</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>506</v>
+      </c>
+      <c r="B528" t="s">
+        <v>115</v>
+      </c>
+      <c r="C528" t="s">
+        <v>349</v>
+      </c>
+      <c r="E528" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$TRNH4U  &lt;-  </v>
+      </c>
+      <c r="G528" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("TRNH4U", TRNH4U, envir = env)</v>
+      </c>
+      <c r="H528" t="str">
+        <f t="shared" si="92"/>
+        <v>TRNH4U  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I528" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$TRNH4U[1]</v>
+      </c>
+      <c r="J528" t="str">
+        <f t="shared" si="94"/>
+        <v>TRNH4U[i] &lt;- simVars$TRNH4U[1]</v>
+      </c>
+      <c r="K528" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("TRNH4U", TRNH4U, envir = globalenv())</v>
+      </c>
+      <c r="L528" t="str">
+        <f t="shared" si="96"/>
+        <v>"TRNH4U"</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>506</v>
+      </c>
+      <c r="B529" t="s">
+        <v>116</v>
+      </c>
+      <c r="C529" t="s">
+        <v>349</v>
+      </c>
+      <c r="E529" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$TRNO3U  &lt;-  </v>
+      </c>
+      <c r="G529" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("TRNO3U", TRNO3U, envir = env)</v>
+      </c>
+      <c r="H529" t="str">
+        <f t="shared" si="92"/>
+        <v>TRNO3U  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I529" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$TRNO3U[1]</v>
+      </c>
+      <c r="J529" t="str">
+        <f t="shared" si="94"/>
+        <v>TRNO3U[i] &lt;- simVars$TRNO3U[1]</v>
+      </c>
+      <c r="K529" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("TRNO3U", TRNO3U, envir = globalenv())</v>
+      </c>
+      <c r="L529" t="str">
+        <f t="shared" si="96"/>
+        <v>"TRNO3U"</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>506</v>
+      </c>
+      <c r="B530" t="s">
+        <v>117</v>
+      </c>
+      <c r="C530" t="s">
+        <v>349</v>
+      </c>
+      <c r="E530" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$TRNU  &lt;-  </v>
+      </c>
+      <c r="G530" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("TRNU", TRNU, envir = env)</v>
+      </c>
+      <c r="H530" t="str">
+        <f t="shared" si="92"/>
+        <v>TRNU  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I530" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$TRNU[1]</v>
+      </c>
+      <c r="J530" t="str">
+        <f t="shared" si="94"/>
+        <v>TRNU[i] &lt;- simVars$TRNU[1]</v>
+      </c>
+      <c r="K530" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("TRNU", TRNU, envir = globalenv())</v>
+      </c>
+      <c r="L530" t="str">
+        <f t="shared" si="96"/>
+        <v>"TRNU"</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>506</v>
+      </c>
+      <c r="B531" t="s">
+        <v>508</v>
+      </c>
+      <c r="C531" t="s">
+        <v>349</v>
+      </c>
+      <c r="E531" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$UNH4  &lt;-  </v>
+      </c>
+      <c r="G531" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("UNH4", UNH4, envir = env)</v>
+      </c>
+      <c r="H531" t="str">
+        <f t="shared" si="92"/>
+        <v>UNH4  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I531" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$UNH4[1]</v>
+      </c>
+      <c r="J531" t="str">
+        <f t="shared" si="94"/>
+        <v>UNH4[i] &lt;- simVars$UNH4[1]</v>
+      </c>
+      <c r="K531" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("UNH4", UNH4, envir = globalenv())</v>
+      </c>
+      <c r="L531" t="str">
+        <f t="shared" si="96"/>
+        <v>"UNH4"</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>506</v>
+      </c>
+      <c r="B532" t="s">
+        <v>509</v>
+      </c>
+      <c r="C532" t="s">
+        <v>349</v>
+      </c>
+      <c r="E532" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">simDataVars$UNO3  &lt;-  </v>
+      </c>
+      <c r="G532" t="str">
+        <f t="shared" si="91"/>
+        <v>assign("UNO3", UNO3, envir = env)</v>
+      </c>
+      <c r="H532" t="str">
+        <f t="shared" si="92"/>
+        <v>UNO3  &lt;-  numeric (outn)</v>
+      </c>
+      <c r="I532" t="str">
+        <f t="shared" si="93"/>
+        <v>simVars$UNO3[1]</v>
+      </c>
+      <c r="J532" t="str">
+        <f t="shared" si="94"/>
+        <v>UNO3[i] &lt;- simVars$UNO3[1]</v>
+      </c>
+      <c r="K532" t="str">
+        <f t="shared" si="95"/>
+        <v>assign("UNO3", UNO3, envir = globalenv())</v>
+      </c>
+      <c r="L532" t="str">
+        <f t="shared" si="96"/>
+        <v>"UNO3"</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L513">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SENES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Output"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L513"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/R/CropModels/Soybean/Soybean_support.xlsx
+++ b/R/CropModels/Soybean/Soybean_support.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="integration" sheetId="3" r:id="rId1"/>
     <sheet name="variables_integration" sheetId="6" r:id="rId2"/>
     <sheet name="variables_list" sheetId="4" r:id="rId3"/>
-    <sheet name="constant_check" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">variables_list!$A$1:$L$513</definedName>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="509">
   <si>
     <t>üü</t>
   </si>
@@ -1076,180 +1075,6 @@
   </si>
   <si>
     <t>Control</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>THVAR</t>
-  </si>
-  <si>
-    <t>PL-EM</t>
-  </si>
-  <si>
-    <t>EM-V1</t>
-  </si>
-  <si>
-    <t>V1-JU</t>
-  </si>
-  <si>
-    <t>JU-R0</t>
-  </si>
-  <si>
-    <t>PM06</t>
-  </si>
-  <si>
-    <t>PM09</t>
-  </si>
-  <si>
-    <t>LNGSH</t>
-  </si>
-  <si>
-    <t>R7-R8</t>
-  </si>
-  <si>
-    <t>FL-VS</t>
-  </si>
-  <si>
-    <t>TRIFL</t>
-  </si>
-  <si>
-    <t>RWDTH</t>
-  </si>
-  <si>
-    <t>RHGHT</t>
-  </si>
-  <si>
-    <t>R1PPO</t>
-  </si>
-  <si>
-    <t>OPTBI</t>
-  </si>
-  <si>
-    <t>SLOBI</t>
-  </si>
-  <si>
-    <t>CSDL</t>
-  </si>
-  <si>
-    <t>PPSEN</t>
-  </si>
-  <si>
-    <t>EM-FL</t>
-  </si>
-  <si>
-    <t>FL-SH</t>
-  </si>
-  <si>
-    <t>FL-SD</t>
-  </si>
-  <si>
-    <t>SD-PM</t>
-  </si>
-  <si>
-    <t>FL-LF</t>
-  </si>
-  <si>
-    <t>LFMAX</t>
-  </si>
-  <si>
-    <t>SLAVR</t>
-  </si>
-  <si>
-    <t>SIZLF</t>
-  </si>
-  <si>
-    <t>WTPSD</t>
-  </si>
-  <si>
-    <t>SFDUR</t>
-  </si>
-  <si>
-    <t>SDPDV</t>
-  </si>
-  <si>
-    <t>PODUR</t>
-  </si>
-  <si>
-    <t>THRSH</t>
-  </si>
-  <si>
-    <t>SDPRO</t>
-  </si>
-  <si>
-    <t>SDLIP</t>
-  </si>
-  <si>
-    <t>PARMAX</t>
-  </si>
-  <si>
-    <t>PHTMAX</t>
-  </si>
-  <si>
-    <t>KC_SLOPE</t>
-  </si>
-  <si>
-    <t>CCMP</t>
-  </si>
-  <si>
-    <t>CCMAX</t>
-  </si>
-  <si>
-    <t>CCEFF</t>
-  </si>
-  <si>
-    <t>FNPGN</t>
-  </si>
-  <si>
-    <t>CTYPE</t>
-  </si>
-  <si>
-    <t>FNPGT</t>
-  </si>
-  <si>
-    <t>XLMAXT</t>
-  </si>
-  <si>
-    <t>YLMAXT</t>
-  </si>
-  <si>
-    <t>FNPGL</t>
-  </si>
-  <si>
-    <t>PGEFF</t>
-  </si>
-  <si>
-    <t>SCV</t>
-  </si>
-  <si>
-    <t>KDIF</t>
-  </si>
-  <si>
-    <t>LFANGB</t>
-  </si>
-  <si>
-    <t>SLWREF</t>
-  </si>
-  <si>
-    <t>SLWSLO</t>
-  </si>
-  <si>
-    <t>NSLOPE</t>
-  </si>
-  <si>
-    <t>LNREF</t>
-  </si>
-  <si>
-    <t>PGREF</t>
-  </si>
-  <si>
-    <t>XPGSLW</t>
-  </si>
-  <si>
-    <t>YPGSLW</t>
   </si>
   <si>
     <t>type2</t>
@@ -1908,7 +1733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1972,7 +1797,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1993,9 +1817,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2005,6 +1826,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2312,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2343,10 +2167,10 @@
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2361,8 +2185,8 @@
       <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
+      <c r="E2" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>6</v>
@@ -3223,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
@@ -3233,836 +3057,836 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5546875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="63.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="26.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="8.88671875" style="25"/>
+    <col min="2" max="2" width="14.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="63.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="26.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="J3" s="25">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="J4" s="25">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="J6" s="25">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="J9" s="25">
+        <v>-273.16000000000003</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="E25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="J3" s="26">
+      <c r="F26" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="J28" s="25">
         <v>-273.16000000000003</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="J4" s="26">
-        <v>-273.16000000000003</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="J6" s="26">
-        <v>-273.16000000000003</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="J9" s="26">
-        <v>-273.16000000000003</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="I10" s="26" t="s">
+      <c r="K28" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>550</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="J28" s="26">
-        <v>-273.16000000000003</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>560</v>
-      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>560</v>
+      <c r="B30" s="30" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4076,9 +3900,9 @@
   <dimension ref="A1:L532"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="D514" sqref="D514"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,7 +3930,7 @@
         <v>341</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>68</v>
@@ -7534,7 +7358,7 @@
         <v>349</v>
       </c>
       <c r="D89" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="9"/>
@@ -7576,7 +7400,7 @@
         <v>349</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="9"/>
@@ -7618,7 +7442,7 @@
         <v>349</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="9"/>
@@ -7660,7 +7484,7 @@
         <v>349</v>
       </c>
       <c r="D92" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="9"/>
@@ -7702,7 +7526,7 @@
         <v>349</v>
       </c>
       <c r="D93" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="9"/>
@@ -7744,7 +7568,7 @@
         <v>349</v>
       </c>
       <c r="D94" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="9"/>
@@ -8020,7 +7844,7 @@
         <v>349</v>
       </c>
       <c r="D101" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="9"/>
@@ -8296,7 +8120,7 @@
         <v>349</v>
       </c>
       <c r="D108" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="9"/>
@@ -12433,7 +12257,7 @@
         <v>347</v>
       </c>
       <c r="D214" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="23"/>
@@ -12475,7 +12299,7 @@
         <v>347</v>
       </c>
       <c r="D215" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="23"/>
@@ -12517,7 +12341,7 @@
         <v>347</v>
       </c>
       <c r="D216" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="23"/>
@@ -17512,7 +17336,7 @@
         <v>349</v>
       </c>
       <c r="D344" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E344" t="str">
         <f t="shared" si="37"/>
@@ -17632,7 +17456,7 @@
         <v>349</v>
       </c>
       <c r="D347" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E347" t="str">
         <f t="shared" si="37"/>
@@ -17830,7 +17654,7 @@
         <v>349</v>
       </c>
       <c r="D352" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E352" t="str">
         <f t="shared" si="37"/>
@@ -17872,7 +17696,7 @@
         <v>349</v>
       </c>
       <c r="D353" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E353" t="str">
         <f t="shared" si="37"/>
@@ -17953,7 +17777,7 @@
         <v>349</v>
       </c>
       <c r="D355" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E355" t="str">
         <f t="shared" si="37"/>
@@ -17986,7 +17810,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B356" t="s">
         <v>285</v>
@@ -18025,7 +17849,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B357" t="s">
         <v>82</v>
@@ -18064,7 +17888,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B358" t="s">
         <v>293</v>
@@ -18103,7 +17927,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B359" t="s">
         <v>294</v>
@@ -18142,7 +17966,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B360" t="s">
         <v>312</v>
@@ -18181,10 +18005,10 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="C361" t="s">
         <v>347</v>
@@ -18220,7 +18044,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B362" t="s">
         <v>103</v>
@@ -18259,7 +18083,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B363" t="s">
         <v>104</v>
@@ -18298,7 +18122,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B364" t="s">
         <v>317</v>
@@ -18306,7 +18130,7 @@
       <c r="C364" t="s">
         <v>349</v>
       </c>
-      <c r="D364" s="24"/>
+      <c r="D364" s="23"/>
       <c r="E364" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">simDataVars$AGRSD3  &lt;-  </v>
@@ -18338,10 +18162,10 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B365" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="C365" t="s">
         <v>349</v>
@@ -18377,10 +18201,10 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B366" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="C366" t="s">
         <v>349</v>
@@ -18416,10 +18240,10 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B367" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="C367" t="s">
         <v>349</v>
@@ -18455,10 +18279,10 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="C368" t="s">
         <v>351</v>
@@ -22745,10 +22569,10 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B478" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="C478" t="s">
         <v>347</v>
@@ -22784,10 +22608,10 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B479" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="C479" t="s">
         <v>347</v>
@@ -22823,10 +22647,10 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B480" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="C480" t="s">
         <v>347</v>
@@ -22862,7 +22686,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B481" t="s">
         <v>233</v>
@@ -22901,7 +22725,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B482" t="s">
         <v>257</v>
@@ -22940,7 +22764,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B483" t="s">
         <v>82</v>
@@ -22979,7 +22803,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B484" t="s">
         <v>259</v>
@@ -23018,7 +22842,7 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B485" t="s">
         <v>240</v>
@@ -23057,7 +22881,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B486" t="s">
         <v>284</v>
@@ -23096,7 +22920,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B487" t="s">
         <v>155</v>
@@ -23135,7 +22959,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B488" t="s">
         <v>244</v>
@@ -23174,10 +22998,10 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B489" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="C489" t="s">
         <v>347</v>
@@ -23213,7 +23037,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B490" t="s">
         <v>245</v>
@@ -23252,7 +23076,7 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B491" t="s">
         <v>118</v>
@@ -23291,10 +23115,10 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B492" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="C492" t="s">
         <v>349</v>
@@ -23330,7 +23154,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B493" t="s">
         <v>143</v>
@@ -23369,7 +23193,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B494" t="s">
         <v>144</v>
@@ -23408,7 +23232,7 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B495" t="s">
         <v>88</v>
@@ -23447,7 +23271,7 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B496" t="s">
         <v>89</v>
@@ -23486,7 +23310,7 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B497" t="s">
         <v>96</v>
@@ -23525,7 +23349,7 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B498" t="s">
         <v>135</v>
@@ -23564,7 +23388,7 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="B499" t="s">
         <v>108</v>
@@ -23603,10 +23427,10 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B500" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="C500" t="s">
         <v>347</v>
@@ -23642,7 +23466,7 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B501" t="s">
         <v>302</v>
@@ -23681,7 +23505,7 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B502" t="s">
         <v>303</v>
@@ -23720,10 +23544,10 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B503" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="C503" t="s">
         <v>347</v>
@@ -23759,7 +23583,7 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B504" t="s">
         <v>117</v>
@@ -23798,7 +23622,7 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B505" t="s">
         <v>186</v>
@@ -23837,7 +23661,7 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B506" t="s">
         <v>187</v>
@@ -23876,7 +23700,7 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B507" t="s">
         <v>188</v>
@@ -23915,7 +23739,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B508" t="s">
         <v>189</v>
@@ -23954,7 +23778,7 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B509" t="s">
         <v>95</v>
@@ -23993,7 +23817,7 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B510" t="s">
         <v>99</v>
@@ -24032,7 +23856,7 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B511" t="s">
         <v>100</v>
@@ -24071,7 +23895,7 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B512" t="s">
         <v>101</v>
@@ -24110,7 +23934,7 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="B513" t="s">
         <v>102</v>
@@ -24149,7 +23973,7 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B514" t="s">
         <v>350</v>
@@ -24188,7 +24012,7 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B515" t="s">
         <v>233</v>
@@ -24227,7 +24051,7 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B516" t="s">
         <v>236</v>
@@ -24266,7 +24090,7 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B517" t="s">
         <v>82</v>
@@ -24305,10 +24129,10 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B518" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="C518" t="s">
         <v>347</v>
@@ -24344,7 +24168,7 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B519" t="s">
         <v>239</v>
@@ -24383,7 +24207,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B520" t="s">
         <v>299</v>
@@ -24422,7 +24246,7 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B521" t="s">
         <v>300</v>
@@ -24461,10 +24285,10 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B522" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="C522" t="s">
         <v>347</v>
@@ -24500,10 +24324,10 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B523" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="C523" t="s">
         <v>347</v>
@@ -24539,7 +24363,7 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B524" t="s">
         <v>240</v>
@@ -24578,7 +24402,7 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B525" t="s">
         <v>249</v>
@@ -24617,7 +24441,7 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B526" t="s">
         <v>244</v>
@@ -24656,7 +24480,7 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B527" t="s">
         <v>245</v>
@@ -24695,7 +24519,7 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B528" t="s">
         <v>115</v>
@@ -24734,7 +24558,7 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B529" t="s">
         <v>116</v>
@@ -24773,7 +24597,7 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B530" t="s">
         <v>117</v>
@@ -24812,10 +24636,10 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B531" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="C531" t="s">
         <v>349</v>
@@ -24851,10 +24675,10 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="B532" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="C532" t="s">
         <v>349</v>
@@ -24893,324 +24717,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>